--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$U$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$W$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -605,16 +605,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23555,17 +23558,17 @@
   </sheetPr>
   <dimension ref="A1:CR153"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A95" colorId="22" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="A95" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="22" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="23" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -23580,7 +23583,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23590,7 +23593,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23613,6 +23616,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23639,6 +23643,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:96" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -23663,6 +23668,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -23689,6 +23695,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -23756,6 +23763,9 @@
       </c>
       <c r="V10" s="8">
         <v>2020</v>
+      </c>
+      <c r="W10" s="8">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23828,7 +23838,9 @@
       <c r="V12" s="10">
         <v>298996.95060892182</v>
       </c>
-      <c r="W12" s="11"/>
+      <c r="W12" s="10">
+        <v>338624.9813038815</v>
+      </c>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
@@ -23970,7 +23982,9 @@
       <c r="V13" s="10">
         <v>26888.247370411897</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="10">
+        <v>25689.734589332635</v>
+      </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
@@ -24112,7 +24126,9 @@
       <c r="V14" s="10">
         <v>33444.059235491455</v>
       </c>
-      <c r="W14" s="11"/>
+      <c r="W14" s="10">
+        <v>27596.79430638098</v>
+      </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
@@ -24254,7 +24270,9 @@
       <c r="V15" s="10">
         <v>161119.88216885226</v>
       </c>
-      <c r="W15" s="11"/>
+      <c r="W15" s="10">
+        <v>177442.98755002304</v>
+      </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
@@ -24396,7 +24414,9 @@
       <c r="V16" s="10">
         <v>28524.180599602638</v>
       </c>
-      <c r="W16" s="11"/>
+      <c r="W16" s="10">
+        <v>32758.304587616469</v>
+      </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
@@ -24636,7 +24656,9 @@
       <c r="V18" s="13">
         <v>548973.31998328003</v>
       </c>
-      <c r="W18" s="11"/>
+      <c r="W18" s="13">
+        <v>602112.80233723461</v>
+      </c>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
@@ -24734,6 +24756,7 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
     </row>
     <row r="20" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
@@ -24948,7 +24971,7 @@
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:96" ht="15" x14ac:dyDescent="0.25">
@@ -24974,6 +24997,7 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -25000,10 +25024,11 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -25026,6 +25051,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
     </row>
     <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -25052,6 +25078,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:96" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -25076,6 +25103,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -25102,6 +25130,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -25169,6 +25198,9 @@
       </c>
       <c r="V32" s="17">
         <v>2020</v>
+      </c>
+      <c r="W32" s="17">
+        <v>2021</v>
       </c>
     </row>
     <row r="33" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25241,7 +25273,9 @@
       <c r="V34" s="10">
         <v>264584.10138504417</v>
       </c>
-      <c r="W34" s="11"/>
+      <c r="W34" s="10">
+        <v>285441.69255206618</v>
+      </c>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
@@ -25383,7 +25417,9 @@
       <c r="V35" s="10">
         <v>24983.46576630856</v>
       </c>
-      <c r="W35" s="11"/>
+      <c r="W35" s="10">
+        <v>24234.841653206939</v>
+      </c>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
@@ -25525,7 +25561,9 @@
       <c r="V36" s="10">
         <v>36672.710878040947</v>
       </c>
-      <c r="W36" s="11"/>
+      <c r="W36" s="10">
+        <v>27934.301597254092</v>
+      </c>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
@@ -25667,7 +25705,9 @@
       <c r="V37" s="10">
         <v>158618.23292226929</v>
       </c>
-      <c r="W37" s="11"/>
+      <c r="W37" s="10">
+        <v>175350.43146671998</v>
+      </c>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
@@ -25809,7 +25849,9 @@
       <c r="V38" s="10">
         <v>27910.829761362154</v>
       </c>
-      <c r="W38" s="11"/>
+      <c r="W38" s="10">
+        <v>32033.990167717988</v>
+      </c>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
@@ -26049,7 +26091,9 @@
       <c r="V40" s="13">
         <v>512769.34071302507</v>
       </c>
-      <c r="W40" s="11"/>
+      <c r="W40" s="13">
+        <v>544995.25743696524</v>
+      </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
@@ -26147,6 +26191,7 @@
       <c r="T41" s="14"/>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
     </row>
     <row r="42" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
@@ -26361,7 +26406,7 @@
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.25">
@@ -26371,7 +26416,7 @@
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:91" x14ac:dyDescent="0.25">
@@ -26406,6 +26451,8 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
       <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
     </row>
     <row r="54" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
@@ -26469,8 +26516,12 @@
         <v>17</v>
       </c>
       <c r="U54" s="19" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="V54" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="W54" s="19"/>
     </row>
     <row r="55" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
@@ -26539,7 +26590,10 @@
       <c r="U56" s="20">
         <v>-25.446440275844523</v>
       </c>
-      <c r="W56" s="11"/>
+      <c r="V56" s="20">
+        <v>13.253657140735143</v>
+      </c>
+      <c r="W56" s="20"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
@@ -26673,7 +26727,10 @@
       <c r="U57" s="20">
         <v>-35.206895547905305</v>
       </c>
-      <c r="W57" s="11"/>
+      <c r="V57" s="20">
+        <v>-4.4573852827541174</v>
+      </c>
+      <c r="W57" s="20"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
@@ -26807,7 +26864,10 @@
       <c r="U58" s="20">
         <v>-70.471298737402577</v>
       </c>
-      <c r="W58" s="11"/>
+      <c r="V58" s="20">
+        <v>-17.48371777462124</v>
+      </c>
+      <c r="W58" s="20"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
@@ -26941,7 +27001,10 @@
       <c r="U59" s="20">
         <v>-7.2312383410428538</v>
       </c>
-      <c r="W59" s="11"/>
+      <c r="V59" s="20">
+        <v>10.131031106430612</v>
+      </c>
+      <c r="W59" s="20"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
@@ -27075,7 +27138,10 @@
       <c r="U60" s="20">
         <v>1.2417264759207995</v>
       </c>
-      <c r="W60" s="11"/>
+      <c r="V60" s="20">
+        <v>14.843981138139384</v>
+      </c>
+      <c r="W60" s="20"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
@@ -27167,6 +27233,7 @@
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
@@ -27301,7 +27368,10 @@
       <c r="U62" s="20">
         <v>-27.54370785312571</v>
       </c>
-      <c r="W62" s="11"/>
+      <c r="V62" s="20">
+        <v>9.6797932467051311</v>
+      </c>
+      <c r="W62" s="20"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
@@ -27393,6 +27463,8 @@
       <c r="S63" s="14"/>
       <c r="T63" s="14"/>
       <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
@@ -27421,6 +27493,7 @@
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
@@ -27513,6 +27586,7 @@
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
@@ -27595,7 +27669,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:91" x14ac:dyDescent="0.25">
@@ -27605,7 +27679,7 @@
     </row>
     <row r="72" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.25">
@@ -27637,6 +27711,8 @@
       <c r="S75" s="18"/>
       <c r="T75" s="18"/>
       <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
     </row>
     <row r="76" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
@@ -27700,8 +27776,12 @@
         <v>17</v>
       </c>
       <c r="U76" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="V76" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W76" s="8"/>
     </row>
     <row r="77" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
@@ -27770,7 +27850,10 @@
       <c r="U78" s="20">
         <v>-30.083619127812327</v>
       </c>
-      <c r="W78" s="11"/>
+      <c r="V78" s="20">
+        <v>7.8831611793137739</v>
+      </c>
+      <c r="W78" s="20"/>
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
@@ -27904,7 +27987,10 @@
       <c r="U79" s="20">
         <v>-37.674126357143898</v>
       </c>
-      <c r="W79" s="11"/>
+      <c r="V79" s="20">
+        <v>-2.9964782312595588</v>
+      </c>
+      <c r="W79" s="20"/>
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
@@ -28038,7 +28124,10 @@
       <c r="U80" s="20">
         <v>-69.149523440431054</v>
       </c>
-      <c r="W80" s="11"/>
+      <c r="V80" s="20">
+        <v>-23.828097436939899</v>
+      </c>
+      <c r="W80" s="20"/>
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
@@ -28172,7 +28261,10 @@
       <c r="U81" s="20">
         <v>-10.52961471562169</v>
       </c>
-      <c r="W81" s="11"/>
+      <c r="V81" s="20">
+        <v>10.548723331604819</v>
+      </c>
+      <c r="W81" s="20"/>
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
@@ -28306,7 +28398,10 @@
       <c r="U82" s="20">
         <v>0.85663116120957739</v>
       </c>
-      <c r="W82" s="11"/>
+      <c r="V82" s="20">
+        <v>14.77261851979641</v>
+      </c>
+      <c r="W82" s="20"/>
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
@@ -28398,6 +28493,7 @@
       <c r="S83" s="11"/>
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
       <c r="W83" s="11"/>
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
@@ -28532,7 +28628,10 @@
       <c r="U84" s="20">
         <v>-30.925876370121969</v>
       </c>
-      <c r="W84" s="11"/>
+      <c r="V84" s="20">
+        <v>6.2846808818812718</v>
+      </c>
+      <c r="W84" s="20"/>
       <c r="X84" s="11"/>
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
@@ -28624,6 +28723,8 @@
       <c r="S85" s="14"/>
       <c r="T85" s="14"/>
       <c r="U85" s="14"/>
+      <c r="V85" s="14"/>
+      <c r="W85" s="14"/>
     </row>
     <row r="86" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
@@ -28652,6 +28753,7 @@
       <c r="S87" s="11"/>
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
       <c r="W87" s="11"/>
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
@@ -28823,7 +28925,7 @@
     </row>
     <row r="90" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:92" x14ac:dyDescent="0.25">
@@ -28833,7 +28935,7 @@
     </row>
     <row r="93" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:92" x14ac:dyDescent="0.25">
@@ -28866,6 +28968,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
@@ -28933,6 +29036,9 @@
       </c>
       <c r="V97" s="17">
         <v>2020</v>
+      </c>
+      <c r="W97" s="17">
+        <v>2021</v>
       </c>
     </row>
     <row r="98" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29005,7 +29111,9 @@
       <c r="V99" s="20">
         <v>113.00639344682214</v>
       </c>
-      <c r="W99" s="11"/>
+      <c r="W99" s="20">
+        <v>118.63192733910601</v>
+      </c>
       <c r="X99" s="11"/>
       <c r="Y99" s="11"/>
       <c r="Z99" s="11"/>
@@ -29147,7 +29255,9 @@
       <c r="V100" s="20">
         <v>107.62416880796431</v>
       </c>
-      <c r="W100" s="11"/>
+      <c r="W100" s="20">
+        <v>106.00331108799786</v>
+      </c>
       <c r="X100" s="11"/>
       <c r="Y100" s="11"/>
       <c r="Z100" s="11"/>
@@ -29289,7 +29399,9 @@
       <c r="V101" s="20">
         <v>91.196037693295366</v>
       </c>
-      <c r="W101" s="11"/>
+      <c r="W101" s="20">
+        <v>98.791781889738431</v>
+      </c>
       <c r="X101" s="11"/>
       <c r="Y101" s="11"/>
       <c r="Z101" s="11"/>
@@ -29431,7 +29543,9 @@
       <c r="V102" s="20">
         <v>101.57715112600509</v>
       </c>
-      <c r="W102" s="11"/>
+      <c r="W102" s="20">
+        <v>101.19335667771094</v>
+      </c>
       <c r="X102" s="11"/>
       <c r="Y102" s="11"/>
       <c r="Z102" s="11"/>
@@ -29573,7 +29687,9 @@
       <c r="V103" s="20">
         <v>102.19753709755189</v>
       </c>
-      <c r="W103" s="11"/>
+      <c r="W103" s="20">
+        <v>102.2610808585076</v>
+      </c>
       <c r="X103" s="11"/>
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
@@ -29813,7 +29929,9 @@
       <c r="V105" s="20">
         <v>107.06048049204971</v>
       </c>
-      <c r="W105" s="11"/>
+      <c r="W105" s="20">
+        <v>110.48037466764116</v>
+      </c>
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
       <c r="Z105" s="11"/>
@@ -29911,6 +30029,7 @@
       <c r="T106" s="14"/>
       <c r="U106" s="14"/>
       <c r="V106" s="14"/>
+      <c r="W106" s="14"/>
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
@@ -29929,7 +30048,7 @@
     </row>
     <row r="112" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.25">
@@ -29939,7 +30058,7 @@
     </row>
     <row r="115" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:96" x14ac:dyDescent="0.25">
@@ -29972,6 +30091,7 @@
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
       <c r="V118" s="7"/>
+      <c r="W118" s="7"/>
     </row>
     <row r="119" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
@@ -30039,6 +30159,9 @@
       </c>
       <c r="V119" s="17">
         <v>2020</v>
+      </c>
+      <c r="W119" s="17">
+        <v>2021</v>
       </c>
     </row>
     <row r="120" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30111,7 +30234,9 @@
       <c r="V121" s="20">
         <v>54.464750785708183</v>
       </c>
-      <c r="W121" s="11"/>
+      <c r="W121" s="20">
+        <v>56.2394587840407</v>
+      </c>
       <c r="X121" s="11"/>
       <c r="Y121" s="11"/>
       <c r="Z121" s="11"/>
@@ -30253,7 +30378,9 @@
       <c r="V122" s="20">
         <v>4.8979151429856058</v>
       </c>
-      <c r="W122" s="11"/>
+      <c r="W122" s="20">
+        <v>4.2665983001212107</v>
+      </c>
       <c r="X122" s="11"/>
       <c r="Y122" s="11"/>
       <c r="Z122" s="11"/>
@@ -30395,7 +30522,9 @@
       <c r="V123" s="20">
         <v>6.0921101295979287</v>
       </c>
-      <c r="W123" s="11"/>
+      <c r="W123" s="20">
+        <v>4.5833262802680643</v>
+      </c>
       <c r="X123" s="11"/>
       <c r="Y123" s="11"/>
       <c r="Z123" s="11"/>
@@ -30537,7 +30666,9 @@
       <c r="V124" s="20">
         <v>29.349310121985429</v>
       </c>
-      <c r="W124" s="11"/>
+      <c r="W124" s="20">
+        <v>29.470057248614989</v>
+      </c>
       <c r="X124" s="11"/>
       <c r="Y124" s="11"/>
       <c r="Z124" s="11"/>
@@ -30679,7 +30810,9 @@
       <c r="V125" s="20">
         <v>5.1959138197228594</v>
       </c>
-      <c r="W125" s="11"/>
+      <c r="W125" s="20">
+        <v>5.4405593869550417</v>
+      </c>
       <c r="X125" s="11"/>
       <c r="Y125" s="11"/>
       <c r="Z125" s="11"/>
@@ -30919,7 +31052,9 @@
       <c r="V127" s="20">
         <v>100</v>
       </c>
-      <c r="W127" s="11"/>
+      <c r="W127" s="20">
+        <v>100</v>
+      </c>
       <c r="X127" s="11"/>
       <c r="Y127" s="11"/>
       <c r="Z127" s="11"/>
@@ -31017,6 +31152,7 @@
       <c r="T128" s="14"/>
       <c r="U128" s="14"/>
       <c r="V128" s="14"/>
+      <c r="W128" s="14"/>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
@@ -31231,7 +31367,7 @@
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:96" x14ac:dyDescent="0.25">
@@ -31241,7 +31377,7 @@
     </row>
     <row r="137" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:96" x14ac:dyDescent="0.25">
@@ -31274,6 +31410,7 @@
       <c r="T140" s="7"/>
       <c r="U140" s="7"/>
       <c r="V140" s="7"/>
+      <c r="W140" s="7"/>
     </row>
     <row r="141" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
@@ -31341,6 +31478,9 @@
       </c>
       <c r="V141" s="17">
         <v>2020</v>
+      </c>
+      <c r="W141" s="17">
+        <v>2021</v>
       </c>
     </row>
     <row r="142" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31413,7 +31553,9 @@
       <c r="V143" s="20">
         <v>51.599048612604257</v>
       </c>
-      <c r="W143" s="11"/>
+      <c r="W143" s="20">
+        <v>52.375078251957206</v>
+      </c>
       <c r="X143" s="11"/>
       <c r="Y143" s="11"/>
       <c r="Z143" s="11"/>
@@ -31555,7 +31697,9 @@
       <c r="V144" s="20">
         <v>4.8722620060645809</v>
       </c>
-      <c r="W144" s="11"/>
+      <c r="W144" s="20">
+        <v>4.4467986321899264</v>
+      </c>
       <c r="X144" s="11"/>
       <c r="Y144" s="11"/>
       <c r="Z144" s="11"/>
@@ -31697,7 +31841,9 @@
       <c r="V145" s="20">
         <v>7.1518922771486606</v>
       </c>
-      <c r="W145" s="11"/>
+      <c r="W145" s="20">
+        <v>5.1256045288586769</v>
+      </c>
       <c r="X145" s="11"/>
       <c r="Y145" s="11"/>
       <c r="Z145" s="11"/>
@@ -31839,7 +31985,9 @@
       <c r="V146" s="20">
         <v>30.93364215218185</v>
       </c>
-      <c r="W146" s="11"/>
+      <c r="W146" s="20">
+        <v>32.174671077206796</v>
+      </c>
       <c r="X146" s="11"/>
       <c r="Y146" s="11"/>
       <c r="Z146" s="11"/>
@@ -31981,7 +32129,9 @@
       <c r="V147" s="20">
         <v>5.4431549520006586</v>
       </c>
-      <c r="W147" s="11"/>
+      <c r="W147" s="20">
+        <v>5.8778475097873812</v>
+      </c>
       <c r="X147" s="11"/>
       <c r="Y147" s="11"/>
       <c r="Z147" s="11"/>
@@ -32221,7 +32371,9 @@
       <c r="V149" s="20">
         <v>100</v>
       </c>
-      <c r="W149" s="11"/>
+      <c r="W149" s="20">
+        <v>100</v>
+      </c>
       <c r="X149" s="11"/>
       <c r="Y149" s="11"/>
       <c r="Z149" s="11"/>
@@ -32319,6 +32471,7 @@
       <c r="T150" s="14"/>
       <c r="U150" s="14"/>
       <c r="V150" s="14"/>
+      <c r="W150" s="14"/>
     </row>
     <row r="151" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
@@ -32515,12 +32668,12 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="22" max="16" man="1"/>
-    <brk id="109" max="16" man="1"/>
-    <brk id="131" max="16" man="1"/>
-    <brk id="44" max="16" man="1"/>
-    <brk id="66" max="16" man="1"/>
-    <brk id="88" max="16" man="1"/>
+    <brk id="22" max="22" man="1"/>
+    <brk id="44" max="22" man="1"/>
+    <brk id="66" max="22" man="1"/>
+    <brk id="88" max="22" man="1"/>
+    <brk id="109" max="22" man="1"/>
+    <brk id="131" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3B5BB8-C3DA-4ADC-86E2-77B91F59CA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="1" r:id="rId1"/>
@@ -611,19 +612,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -741,9 +742,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23552,7 +23553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -23561,7 +23562,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23583,7 +23584,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23593,7 +23594,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23836,10 +23837,10 @@
         <v>401049.8649765295</v>
       </c>
       <c r="V12" s="10">
-        <v>298996.95060892182</v>
+        <v>298075.22897364176</v>
       </c>
       <c r="W12" s="10">
-        <v>338624.9813038815</v>
+        <v>339098.59772602032</v>
       </c>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
@@ -23980,10 +23981,10 @@
         <v>41498.624888844366</v>
       </c>
       <c r="V13" s="10">
-        <v>26888.247370411897</v>
+        <v>27687.405640036945</v>
       </c>
       <c r="W13" s="10">
-        <v>25689.734589332635</v>
+        <v>26139.842292656736</v>
       </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
@@ -24124,10 +24125,10 @@
         <v>113259.4994208344</v>
       </c>
       <c r="V14" s="10">
-        <v>33444.059235491455</v>
+        <v>33371.524480958848</v>
       </c>
       <c r="W14" s="10">
-        <v>27596.79430638098</v>
+        <v>28022.278844270317</v>
       </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
@@ -24268,10 +24269,10 @@
         <v>173679.02652529973</v>
       </c>
       <c r="V15" s="10">
-        <v>161119.88216885226</v>
+        <v>163194.58204747713</v>
       </c>
       <c r="W15" s="10">
-        <v>177442.98755002304</v>
+        <v>178553.17352180267</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
@@ -24412,10 +24413,10 @@
         <v>28174.332454106057</v>
       </c>
       <c r="V16" s="10">
-        <v>28524.180599602638</v>
+        <v>28715.85005032106</v>
       </c>
       <c r="W16" s="10">
-        <v>32758.304587616469</v>
+        <v>33104.74321233794</v>
       </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
@@ -24654,10 +24655,10 @@
         <v>757661.34826561413</v>
       </c>
       <c r="V18" s="13">
-        <v>548973.31998328003</v>
+        <v>551044.59119243571</v>
       </c>
       <c r="W18" s="13">
-        <v>602112.80233723461</v>
+        <v>604918.63559708802</v>
       </c>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
@@ -24971,7 +24972,7 @@
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:96" ht="15" x14ac:dyDescent="0.25">
@@ -25028,7 +25029,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -25271,10 +25272,10 @@
         <v>378429.3438596651</v>
       </c>
       <c r="V34" s="10">
-        <v>264584.10138504417</v>
+        <v>263782.18683610234</v>
       </c>
       <c r="W34" s="10">
-        <v>285441.69255206618</v>
+        <v>285869.7685868009</v>
       </c>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
@@ -25415,10 +25416,10 @@
         <v>40085.223529268907</v>
       </c>
       <c r="V35" s="10">
-        <v>24983.46576630856</v>
+        <v>25974.867051749487</v>
       </c>
       <c r="W35" s="10">
-        <v>24234.841653206939</v>
+        <v>24826.419617327963</v>
       </c>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
@@ -25559,10 +25560,10 @@
         <v>118872.42910893093</v>
       </c>
       <c r="V36" s="10">
-        <v>36672.710878040947</v>
+        <v>36600.576205812315</v>
       </c>
       <c r="W36" s="10">
-        <v>27934.301597254092</v>
+        <v>28332.377272270205</v>
       </c>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
@@ -25703,10 +25704,10 @@
         <v>177285.73808876213</v>
       </c>
       <c r="V37" s="10">
-        <v>158618.23292226929</v>
+        <v>160691.40575976204</v>
       </c>
       <c r="W37" s="10">
-        <v>175350.43146671998</v>
+        <v>176135.35094429911</v>
       </c>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
@@ -25847,10 +25848,10 @@
         <v>27673.767644240852</v>
       </c>
       <c r="V38" s="10">
-        <v>27910.829761362154</v>
+        <v>28100.327769293803</v>
       </c>
       <c r="W38" s="10">
-        <v>32033.990167717988</v>
+        <v>32378.375929637339</v>
       </c>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
@@ -26089,10 +26090,10 @@
         <v>742346.50223086798</v>
       </c>
       <c r="V40" s="13">
-        <v>512769.34071302507</v>
+        <v>515149.36362272</v>
       </c>
       <c r="W40" s="13">
-        <v>544995.25743696524</v>
+        <v>547542.29235033551</v>
       </c>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
@@ -26406,7 +26407,7 @@
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.25">
@@ -26416,7 +26417,7 @@
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:91" x14ac:dyDescent="0.25">
@@ -26588,10 +26589,10 @@
         <v>9.6977186807264388</v>
       </c>
       <c r="U56" s="20">
-        <v>-25.446440275844523</v>
+        <v>-25.676267465870879</v>
       </c>
       <c r="V56" s="20">
-        <v>13.253657140735143</v>
+        <v>13.762756769032364</v>
       </c>
       <c r="W56" s="20"/>
       <c r="X56" s="11"/>
@@ -26725,10 +26726,10 @@
         <v>8.9398887592682286</v>
       </c>
       <c r="U57" s="20">
-        <v>-35.206895547905305</v>
+        <v>-33.281149160487359</v>
       </c>
       <c r="V57" s="20">
-        <v>-4.4573852827541174</v>
+        <v>-5.5894126286154489</v>
       </c>
       <c r="W57" s="20"/>
       <c r="X57" s="11"/>
@@ -26862,10 +26863,10 @@
         <v>9.3785865095679526</v>
       </c>
       <c r="U58" s="20">
-        <v>-70.471298737402577</v>
+        <v>-70.535341713844744</v>
       </c>
       <c r="V58" s="20">
-        <v>-17.48371777462124</v>
+        <v>-16.029371507258247</v>
       </c>
       <c r="W58" s="20"/>
       <c r="X58" s="11"/>
@@ -26999,10 +27000,10 @@
         <v>5.7904371300622444</v>
       </c>
       <c r="U59" s="20">
-        <v>-7.2312383410428538</v>
+        <v>-6.0366785141413288</v>
       </c>
       <c r="V59" s="20">
-        <v>10.131031106430612</v>
+        <v>9.4112140744092585</v>
       </c>
       <c r="W59" s="20"/>
       <c r="X59" s="11"/>
@@ -27136,10 +27137,10 @@
         <v>6.6011319053432373</v>
       </c>
       <c r="U60" s="20">
-        <v>1.2417264759207995</v>
+        <v>1.922024584245591</v>
       </c>
       <c r="V60" s="20">
-        <v>14.843981138139384</v>
+        <v>15.283869898769751</v>
       </c>
       <c r="W60" s="20"/>
       <c r="X60" s="11"/>
@@ -27366,10 +27367,10 @@
         <v>8.5724959401556333</v>
       </c>
       <c r="U62" s="20">
-        <v>-27.54370785312571</v>
+        <v>-27.270330939561745</v>
       </c>
       <c r="V62" s="20">
-        <v>9.6797932467051311</v>
+        <v>9.7767123143467103</v>
       </c>
       <c r="W62" s="20"/>
       <c r="X62" s="11"/>
@@ -27669,7 +27670,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:91" x14ac:dyDescent="0.25">
@@ -27679,7 +27680,7 @@
     </row>
     <row r="72" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.25">
@@ -27848,10 +27849,10 @@
         <v>3.5104093743526903</v>
       </c>
       <c r="U78" s="20">
-        <v>-30.083619127812327</v>
+        <v>-30.295525144603459</v>
       </c>
       <c r="V78" s="20">
-        <v>7.8831611793137739</v>
+        <v>8.3734167252250415</v>
       </c>
       <c r="W78" s="20"/>
       <c r="X78" s="11"/>
@@ -27985,10 +27986,10 @@
         <v>5.2295058900339058</v>
       </c>
       <c r="U79" s="20">
-        <v>-37.674126357143898</v>
+        <v>-35.200892586308029</v>
       </c>
       <c r="V79" s="20">
-        <v>-2.9964782312595588</v>
+        <v>-4.4213794516579412</v>
       </c>
       <c r="W79" s="20"/>
       <c r="X79" s="11"/>
@@ -28122,10 +28123,10 @@
         <v>14.79918538737526</v>
       </c>
       <c r="U80" s="20">
-        <v>-69.149523440431054</v>
+        <v>-69.210205865085243</v>
       </c>
       <c r="V80" s="20">
-        <v>-23.828097436939899</v>
+        <v>-22.590351821371286</v>
       </c>
       <c r="W80" s="20"/>
       <c r="X80" s="11"/>
@@ -28259,10 +28260,10 @@
         <v>7.9873379334252519</v>
       </c>
       <c r="U81" s="20">
-        <v>-10.52961471562169</v>
+        <v>-9.3602184292409021</v>
       </c>
       <c r="V81" s="20">
-        <v>10.548723331604819</v>
+        <v>9.6109341451814601</v>
       </c>
       <c r="W81" s="20"/>
       <c r="X81" s="11"/>
@@ -28396,10 +28397,10 @@
         <v>4.7071819631206608</v>
       </c>
       <c r="U82" s="20">
-        <v>0.85663116120957739</v>
+        <v>1.5413879690564016</v>
       </c>
       <c r="V82" s="20">
-        <v>14.77261851979641</v>
+        <v>15.224193096488747</v>
       </c>
       <c r="W82" s="20"/>
       <c r="X82" s="11"/>
@@ -28626,10 +28627,10 @@
         <v>6.3778860887518647</v>
       </c>
       <c r="U84" s="20">
-        <v>-30.925876370121969</v>
+        <v>-30.605268284471592</v>
       </c>
       <c r="V84" s="20">
-        <v>6.2846808818812718</v>
+        <v>6.2880653680355039</v>
       </c>
       <c r="W84" s="20"/>
       <c r="X84" s="11"/>
@@ -28925,7 +28926,7 @@
     </row>
     <row r="90" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:92" x14ac:dyDescent="0.25">
@@ -28935,7 +28936,7 @@
     </row>
     <row r="93" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:92" x14ac:dyDescent="0.25">
@@ -29109,10 +29110,10 @@
         <v>105.97747544790101</v>
       </c>
       <c r="V99" s="20">
-        <v>113.00639344682214</v>
+        <v>113.00051476138795</v>
       </c>
       <c r="W99" s="20">
-        <v>118.63192733910601</v>
+        <v>118.61995740310579</v>
       </c>
       <c r="X99" s="11"/>
       <c r="Y99" s="11"/>
@@ -29253,10 +29254,10 @@
         <v>103.52599096408541</v>
       </c>
       <c r="V100" s="20">
-        <v>107.62416880796431</v>
+        <v>106.5930600717824</v>
       </c>
       <c r="W100" s="20">
-        <v>106.00331108799786</v>
+        <v>105.29042324899743</v>
       </c>
       <c r="X100" s="11"/>
       <c r="Y100" s="11"/>
@@ -29397,10 +29398,10 @@
         <v>95.278190468411296</v>
       </c>
       <c r="V101" s="20">
-        <v>91.196037693295366</v>
+        <v>91.177593197724903</v>
       </c>
       <c r="W101" s="20">
-        <v>98.791781889738431</v>
+        <v>98.905498027857362</v>
       </c>
       <c r="X101" s="11"/>
       <c r="Y101" s="11"/>
@@ -29541,10 +29542,10 @@
         <v>97.965594072966766</v>
       </c>
       <c r="V102" s="20">
-        <v>101.57715112600509</v>
+        <v>101.55775368065258</v>
       </c>
       <c r="W102" s="20">
-        <v>101.19335667771094</v>
+        <v>101.37270716215745</v>
       </c>
       <c r="X102" s="11"/>
       <c r="Y102" s="11"/>
@@ -29685,10 +29686,10 @@
         <v>101.80880614558956</v>
       </c>
       <c r="V103" s="20">
-        <v>102.19753709755189</v>
+        <v>102.19044520078467</v>
       </c>
       <c r="W103" s="20">
-        <v>102.2610808585076</v>
+        <v>102.2433715770028</v>
       </c>
       <c r="X103" s="11"/>
       <c r="Y103" s="11"/>
@@ -29927,10 +29928,10 @@
         <v>102.06303201924204</v>
       </c>
       <c r="V105" s="20">
-        <v>107.06048049204971</v>
+        <v>106.96792621799769</v>
       </c>
       <c r="W105" s="20">
-        <v>110.48037466764116</v>
+        <v>110.47888794132477</v>
       </c>
       <c r="X105" s="11"/>
       <c r="Y105" s="11"/>
@@ -30048,7 +30049,7 @@
     </row>
     <row r="112" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.25">
@@ -30058,7 +30059,7 @@
     </row>
     <row r="115" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:96" x14ac:dyDescent="0.25">
@@ -30232,10 +30233,10 @@
         <v>52.932601866861106</v>
       </c>
       <c r="V121" s="20">
-        <v>54.464750785708183</v>
+        <v>54.092760139178644</v>
       </c>
       <c r="W121" s="20">
-        <v>56.2394587840407</v>
+        <v>56.056893898021734</v>
       </c>
       <c r="X121" s="11"/>
       <c r="Y121" s="11"/>
@@ -30376,10 +30377,10 @@
         <v>5.4771996728934562</v>
       </c>
       <c r="V122" s="20">
-        <v>4.8979151429856058</v>
+        <v>5.0245308787302756</v>
       </c>
       <c r="W122" s="20">
-        <v>4.2665983001212107</v>
+        <v>4.3212162354454939</v>
       </c>
       <c r="X122" s="11"/>
       <c r="Y122" s="11"/>
@@ -30520,10 +30521,10 @@
         <v>14.948565038997991</v>
       </c>
       <c r="V123" s="20">
-        <v>6.0921101295979287</v>
+        <v>6.0560479159670857</v>
       </c>
       <c r="W123" s="20">
-        <v>4.5833262802680643</v>
+        <v>4.6324046235756624</v>
       </c>
       <c r="X123" s="11"/>
       <c r="Y123" s="11"/>
@@ -30664,10 +30665,10 @@
         <v>22.923041662726192</v>
       </c>
       <c r="V124" s="20">
-        <v>29.349310121985429</v>
+        <v>29.615494763197187</v>
       </c>
       <c r="W124" s="20">
-        <v>29.470057248614989</v>
+        <v>29.516890870052443</v>
       </c>
       <c r="X124" s="11"/>
       <c r="Y124" s="11"/>
@@ -30808,10 +30809,10 @@
         <v>3.7185917585212427</v>
       </c>
       <c r="V125" s="20">
-        <v>5.1959138197228594</v>
+        <v>5.2111663029268191</v>
       </c>
       <c r="W125" s="20">
-        <v>5.4405593869550417</v>
+        <v>5.4725943729046689</v>
       </c>
       <c r="X125" s="11"/>
       <c r="Y125" s="11"/>
@@ -31367,7 +31368,7 @@
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:96" x14ac:dyDescent="0.25">
@@ -31377,7 +31378,7 @@
     </row>
     <row r="137" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:96" x14ac:dyDescent="0.25">
@@ -31551,10 +31552,10 @@
         <v>50.977453618010649</v>
       </c>
       <c r="V143" s="20">
-        <v>51.599048612604257</v>
+        <v>51.204991302151448</v>
       </c>
       <c r="W143" s="20">
-        <v>52.375078251957206</v>
+        <v>52.209623362553344</v>
       </c>
       <c r="X143" s="11"/>
       <c r="Y143" s="11"/>
@@ -31695,10 +31696,10 @@
         <v>5.3997996095901994</v>
       </c>
       <c r="V144" s="20">
-        <v>4.8722620060645809</v>
+        <v>5.0422011334896464</v>
       </c>
       <c r="W144" s="20">
-        <v>4.4467986321899264</v>
+        <v>4.5341556194244088</v>
       </c>
       <c r="X144" s="11"/>
       <c r="Y144" s="11"/>
@@ -31839,10 +31840,10 @@
         <v>16.013065159154195</v>
       </c>
       <c r="V145" s="20">
-        <v>7.1518922771486606</v>
+        <v>7.1048474074438497</v>
       </c>
       <c r="W145" s="20">
-        <v>5.1256045288586769</v>
+        <v>5.1744637205379966</v>
       </c>
       <c r="X145" s="11"/>
       <c r="Y145" s="11"/>
@@ -31983,10 +31984,10 @@
         <v>23.881804191976467</v>
       </c>
       <c r="V146" s="20">
-        <v>30.93364215218185</v>
+        <v>31.193167866833981</v>
       </c>
       <c r="W146" s="20">
-        <v>32.174671077206796</v>
+        <v>32.168355468622309</v>
       </c>
       <c r="X146" s="11"/>
       <c r="Y146" s="11"/>
@@ -32127,10 +32128,10 @@
         <v>3.7278774212684813</v>
       </c>
       <c r="V147" s="20">
-        <v>5.4431549520006586</v>
+        <v>5.4547922900810653</v>
       </c>
       <c r="W147" s="20">
-        <v>5.8778475097873812</v>
+        <v>5.9134018288619412</v>
       </c>
       <c r="X147" s="11"/>
       <c r="Y147" s="11"/>

--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D176F8F5-7239-42BA-A377-ED3CDAF94137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A821F-26EA-4E98-839C-59BA2E9D8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3150" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="1" r:id="rId1"/>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23561,10 +23561,10 @@
   </sheetPr>
   <dimension ref="A1:CR153"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A17" colorId="22" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="Z4" sqref="Z4"/>
+      <selection pane="topRight" activeCell="V59" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23586,7 +23586,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23596,7 +23596,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23849,10 +23849,10 @@
         <v>298075.22897364176</v>
       </c>
       <c r="W12" s="9">
-        <v>339098.59772602032</v>
+        <v>339397.70429972827</v>
       </c>
       <c r="X12" s="9">
-        <v>437316.78963177255</v>
+        <v>437876.58720307099</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
@@ -23995,10 +23995,10 @@
         <v>27687.405640036945</v>
       </c>
       <c r="W13" s="9">
-        <v>26139.842292656736</v>
+        <v>26151.373942424285</v>
       </c>
       <c r="X13" s="9">
-        <v>33350.706791454533</v>
+        <v>33551.686095275065</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -24144,7 +24144,7 @@
         <v>28022.278844270317</v>
       </c>
       <c r="X14" s="9">
-        <v>92611.147492113058</v>
+        <v>92304.400537834532</v>
       </c>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
@@ -24287,10 +24287,10 @@
         <v>163194.58204747713</v>
       </c>
       <c r="W15" s="9">
-        <v>178553.17352180267</v>
+        <v>178790.6544512801</v>
       </c>
       <c r="X15" s="9">
-        <v>210475.00546163111</v>
+        <v>210279.28369719189</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -24433,10 +24433,10 @@
         <v>28715.85005032106</v>
       </c>
       <c r="W16" s="9">
-        <v>33104.74321233794</v>
+        <v>32841.555220923539</v>
       </c>
       <c r="X16" s="9">
-        <v>32852.954140157322</v>
+        <v>32510.164774691017</v>
       </c>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
@@ -24677,10 +24677,10 @@
         <v>551044.59119243571</v>
       </c>
       <c r="W18" s="12">
-        <v>604918.63559708802</v>
+        <v>605203.56675862649</v>
       </c>
       <c r="X18" s="12">
-        <v>806606.6035171285</v>
+        <v>806522.12230806344</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
@@ -24994,7 +24994,7 @@
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:96" ht="15" x14ac:dyDescent="0.2">
@@ -25053,7 +25053,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -25306,10 +25306,10 @@
         <v>263782.18683610234</v>
       </c>
       <c r="W34" s="9">
-        <v>285869.7685868009</v>
+        <v>286139.11492931657</v>
       </c>
       <c r="X34" s="9">
-        <v>348304.60117660562</v>
+        <v>348758.35745354905</v>
       </c>
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
@@ -25452,10 +25452,10 @@
         <v>25974.867051749487</v>
       </c>
       <c r="W35" s="9">
-        <v>24826.419617327963</v>
+        <v>24838.430860782097</v>
       </c>
       <c r="X35" s="9">
-        <v>30713.843329896965</v>
+        <v>30926.009239857369</v>
       </c>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
@@ -25601,7 +25601,7 @@
         <v>28332.377272270205</v>
       </c>
       <c r="X36" s="9">
-        <v>78939.753556911426</v>
+        <v>78720.104893502605</v>
       </c>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
@@ -25744,10 +25744,10 @@
         <v>160691.40575976204</v>
       </c>
       <c r="W37" s="9">
-        <v>176135.35094429911</v>
+        <v>176380.5230517459</v>
       </c>
       <c r="X37" s="9">
-        <v>188645.73321195817</v>
+        <v>188423.13246469566</v>
       </c>
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
@@ -25890,10 +25890,10 @@
         <v>28100.327769293803</v>
       </c>
       <c r="W38" s="9">
-        <v>32378.375929637339</v>
+        <v>32116.448242811439</v>
       </c>
       <c r="X38" s="9">
-        <v>32073.599792029974</v>
+        <v>31733.130350200649</v>
       </c>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
@@ -26134,10 +26134,10 @@
         <v>515149.36362272</v>
       </c>
       <c r="W40" s="12">
-        <v>547542.29235033551</v>
+        <v>547806.8943569262</v>
       </c>
       <c r="X40" s="12">
-        <v>678677.5310674021</v>
+        <v>678560.73440180533</v>
       </c>
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
@@ -26451,7 +26451,7 @@
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.2">
@@ -26461,7 +26461,7 @@
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:91" x14ac:dyDescent="0.2">
@@ -26640,10 +26640,10 @@
         <v>-25.676267465870879</v>
       </c>
       <c r="V56" s="19">
-        <v>13.762756769032364</v>
+        <v>13.863102770522602</v>
       </c>
       <c r="W56" s="19">
-        <v>28.964493679537156</v>
+        <v>29.01577755410338</v>
       </c>
       <c r="X56" s="19"/>
       <c r="Y56" s="10"/>
@@ -26779,10 +26779,10 @@
         <v>-33.281149160487359</v>
       </c>
       <c r="V57" s="19">
-        <v>-5.5894126286154489</v>
+        <v>-5.5477631872865203</v>
       </c>
       <c r="W57" s="19">
-        <v>27.585723043262163</v>
+        <v>28.297986060478308</v>
       </c>
       <c r="X57" s="19"/>
       <c r="Y57" s="10"/>
@@ -26921,7 +26921,7 @@
         <v>-16.029371507258247</v>
       </c>
       <c r="W58" s="19">
-        <v>230.49113530982208</v>
+        <v>229.39648145963656</v>
       </c>
       <c r="X58" s="19"/>
       <c r="Y58" s="10"/>
@@ -27057,10 +27057,10 @@
         <v>-6.0366785141413288</v>
       </c>
       <c r="V59" s="19">
-        <v>9.4112140744092585</v>
+        <v>9.5567341808355621</v>
       </c>
       <c r="W59" s="19">
-        <v>17.87805352892849</v>
+        <v>17.612010729840662</v>
       </c>
       <c r="X59" s="19"/>
       <c r="Y59" s="10"/>
@@ -27196,10 +27196,10 @@
         <v>1.922024584245591</v>
       </c>
       <c r="V60" s="19">
-        <v>15.283869898769751</v>
+        <v>14.367344736000078</v>
       </c>
       <c r="W60" s="19">
-        <v>-0.76058306982056934</v>
+        <v>-1.0090583226137682</v>
       </c>
       <c r="X60" s="19"/>
       <c r="Y60" s="10"/>
@@ -27428,10 +27428,10 @@
         <v>-27.270330939561745</v>
       </c>
       <c r="V62" s="19">
-        <v>9.7767123143467103</v>
+        <v>9.828419774340432</v>
       </c>
       <c r="W62" s="19">
-        <v>33.341338165415124</v>
+        <v>33.264601632747627</v>
       </c>
       <c r="X62" s="19"/>
       <c r="Y62" s="10"/>
@@ -27731,7 +27731,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:91" x14ac:dyDescent="0.2">
@@ -27741,7 +27741,7 @@
     </row>
     <row r="72" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
@@ -27917,10 +27917,10 @@
         <v>-30.295525144603459</v>
       </c>
       <c r="V78" s="19">
-        <v>8.3734167252250415</v>
+        <v>8.4755261002917592</v>
       </c>
       <c r="W78" s="19">
-        <v>21.840306129064203</v>
+        <v>21.884195224305842</v>
       </c>
       <c r="X78" s="19"/>
       <c r="Y78" s="10"/>
@@ -28056,10 +28056,10 @@
         <v>-35.200892586308029</v>
       </c>
       <c r="V79" s="19">
-        <v>-4.4213794516579412</v>
+        <v>-4.3751376617377105</v>
       </c>
       <c r="W79" s="19">
-        <v>23.714348679016865</v>
+        <v>24.50870754757328</v>
       </c>
       <c r="X79" s="19"/>
       <c r="Y79" s="10"/>
@@ -28198,7 +28198,7 @@
         <v>-22.590351821371286</v>
       </c>
       <c r="W80" s="19">
-        <v>178.62029648381201</v>
+        <v>177.84503974732985</v>
       </c>
       <c r="X80" s="19"/>
       <c r="Y80" s="10"/>
@@ -28334,10 +28334,10 @@
         <v>-9.3602184292409021</v>
       </c>
       <c r="V81" s="19">
-        <v>9.6109341451814601</v>
+        <v>9.7635073996673611</v>
       </c>
       <c r="W81" s="19">
-        <v>7.102709479152395</v>
+        <v>6.8276299472231017</v>
       </c>
       <c r="X81" s="19"/>
       <c r="Y81" s="10"/>
@@ -28473,10 +28473,10 @@
         <v>1.5413879690564016</v>
       </c>
       <c r="V82" s="19">
-        <v>15.224193096488747</v>
+        <v>14.292076969672181</v>
       </c>
       <c r="W82" s="19">
-        <v>-0.94129532089468171</v>
+        <v>-1.1935251672687315</v>
       </c>
       <c r="X82" s="19"/>
       <c r="Y82" s="10"/>
@@ -28705,10 +28705,10 @@
         <v>-30.605268284471592</v>
       </c>
       <c r="V84" s="19">
-        <v>6.2880653680355039</v>
+        <v>6.3394295014840765</v>
       </c>
       <c r="W84" s="19">
-        <v>23.949791741961363</v>
+        <v>23.868600667826897</v>
       </c>
       <c r="X84" s="19"/>
       <c r="Y84" s="10"/>
@@ -29004,7 +29004,7 @@
     </row>
     <row r="90" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:92" x14ac:dyDescent="0.2">
@@ -29014,7 +29014,7 @@
     </row>
     <row r="93" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:92" x14ac:dyDescent="0.2">
@@ -29195,10 +29195,10 @@
         <v>113.00051476138795</v>
       </c>
       <c r="W99" s="19">
-        <v>118.61995740310579</v>
+        <v>118.61283081957106</v>
       </c>
       <c r="X99" s="19">
-        <v>125.55584627779118</v>
+        <v>125.55300191233168</v>
       </c>
       <c r="Y99" s="10"/>
       <c r="Z99" s="10"/>
@@ -29341,10 +29341,10 @@
         <v>106.5930600717824</v>
       </c>
       <c r="W100" s="19">
-        <v>105.29042324899743</v>
+        <v>105.28593407933518</v>
       </c>
       <c r="X100" s="19">
-        <v>108.58526050691557</v>
+        <v>108.49018971395033</v>
       </c>
       <c r="Y100" s="10"/>
       <c r="Z100" s="10"/>
@@ -29490,7 +29490,7 @@
         <v>98.905498027857362</v>
       </c>
       <c r="X101" s="19">
-        <v>117.31876946555866</v>
+        <v>117.25645013139858</v>
       </c>
       <c r="Y101" s="10"/>
       <c r="Z101" s="10"/>
@@ -29633,10 +29633,10 @@
         <v>101.55775368065258</v>
       </c>
       <c r="W102" s="19">
-        <v>101.37270716215745</v>
+        <v>101.36643851477135</v>
       </c>
       <c r="X102" s="19">
-        <v>111.57156956481282</v>
+        <v>111.59950529778575</v>
       </c>
       <c r="Y102" s="10"/>
       <c r="Z102" s="10"/>
@@ -29779,10 +29779,10 @@
         <v>102.19044520078467</v>
       </c>
       <c r="W103" s="19">
-        <v>102.2433715770028</v>
+        <v>102.25774336137682</v>
       </c>
       <c r="X103" s="19">
-        <v>102.42989359841363</v>
+        <v>102.44865355518087</v>
       </c>
       <c r="Y103" s="10"/>
       <c r="Z103" s="10"/>
@@ -30023,10 +30023,10 @@
         <v>106.96792621799769</v>
       </c>
       <c r="W105" s="19">
-        <v>110.47888794132477</v>
+        <v>110.47753743024329</v>
       </c>
       <c r="X105" s="19">
-        <v>118.8497580358265</v>
+        <v>118.85776488659697</v>
       </c>
       <c r="Y105" s="10"/>
       <c r="Z105" s="10"/>
@@ -30144,7 +30144,7 @@
     </row>
     <row r="112" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.2">
@@ -30154,7 +30154,7 @@
     </row>
     <row r="115" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:96" x14ac:dyDescent="0.2">
@@ -30335,10 +30335,10 @@
         <v>54.092760139178644</v>
       </c>
       <c r="W121" s="19">
-        <v>56.056893898021734</v>
+        <v>56.079924663611635</v>
       </c>
       <c r="X121" s="19">
-        <v>54.216862064468089</v>
+        <v>54.291949977761099</v>
       </c>
       <c r="Y121" s="10"/>
       <c r="Z121" s="10"/>
@@ -30481,10 +30481,10 @@
         <v>5.0245308787302756</v>
       </c>
       <c r="W122" s="19">
-        <v>4.3212162354454939</v>
+        <v>4.3210872140901051</v>
       </c>
       <c r="X122" s="19">
-        <v>4.1346930022680288</v>
+        <v>4.1600453561346313</v>
       </c>
       <c r="Y122" s="10"/>
       <c r="Z122" s="10"/>
@@ -30627,10 +30627,10 @@
         <v>6.0560479159670857</v>
       </c>
       <c r="W123" s="19">
-        <v>4.6324046235756624</v>
+        <v>4.6302236773575478</v>
       </c>
       <c r="X123" s="19">
-        <v>11.481575663810746</v>
+        <v>11.444745033612042</v>
       </c>
       <c r="Y123" s="10"/>
       <c r="Z123" s="10"/>
@@ -30773,10 +30773,10 @@
         <v>29.615494763197187</v>
       </c>
       <c r="W124" s="19">
-        <v>29.516890870052443</v>
+        <v>29.542234096347819</v>
       </c>
       <c r="X124" s="19">
-        <v>26.093885736104266</v>
+        <v>26.07235162941662</v>
       </c>
       <c r="Y124" s="10"/>
       <c r="Z124" s="10"/>
@@ -30919,10 +30919,10 @@
         <v>5.2111663029268191</v>
       </c>
       <c r="W125" s="19">
-        <v>5.4725943729046689</v>
+        <v>5.4265303485928973</v>
       </c>
       <c r="X125" s="19">
-        <v>4.0729835333488795</v>
+        <v>4.0309080030756137</v>
       </c>
       <c r="Y125" s="10"/>
       <c r="Z125" s="10"/>
@@ -31480,7 +31480,7 @@
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:96" x14ac:dyDescent="0.2">
@@ -31490,7 +31490,7 @@
     </row>
     <row r="137" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:96" x14ac:dyDescent="0.2">
@@ -31671,10 +31671,10 @@
         <v>51.204991302151448</v>
       </c>
       <c r="W143" s="19">
-        <v>52.209623362553344</v>
+        <v>52.233573158150371</v>
       </c>
       <c r="X143" s="19">
-        <v>51.32107447682899</v>
+        <v>51.396778471274473</v>
       </c>
       <c r="Y143" s="10"/>
       <c r="Z143" s="10"/>
@@ -31817,10 +31817,10 @@
         <v>5.0422011334896464</v>
       </c>
       <c r="W144" s="19">
-        <v>4.5341556194244088</v>
+        <v>4.5341581343075426</v>
       </c>
       <c r="X144" s="19">
-        <v>4.525542974966509</v>
+        <v>4.5575889779594485</v>
       </c>
       <c r="Y144" s="10"/>
       <c r="Z144" s="10"/>
@@ -31963,10 +31963,10 @@
         <v>7.1048474074438497</v>
       </c>
       <c r="W145" s="19">
-        <v>5.1744637205379966</v>
+        <v>5.1719643480445336</v>
       </c>
       <c r="X145" s="19">
-        <v>11.63140813469359</v>
+        <v>11.601040393664896</v>
       </c>
       <c r="Y145" s="10"/>
       <c r="Z145" s="10"/>
@@ -32109,10 +32109,10 @@
         <v>31.193167866833981</v>
       </c>
       <c r="W146" s="19">
-        <v>32.168355468622309</v>
+        <v>32.197572697364471</v>
       </c>
       <c r="X146" s="19">
-        <v>27.796077603344589</v>
+        <v>27.768057140942986</v>
       </c>
       <c r="Y146" s="10"/>
       <c r="Z146" s="10"/>
@@ -32255,10 +32255,10 @@
         <v>5.4547922900810653</v>
       </c>
       <c r="W147" s="19">
-        <v>5.9134018288619412</v>
+        <v>5.8627316621330827</v>
       </c>
       <c r="X147" s="19">
-        <v>4.7258968101663319</v>
+        <v>4.6765350161581978</v>
       </c>
       <c r="Y147" s="10"/>
       <c r="Z147" s="10"/>

--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897A821F-26EA-4E98-839C-59BA2E9D8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5C01E-A02D-48E3-BF1B-3E88554E6260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$X$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$Y$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23561,17 +23564,17 @@
   </sheetPr>
   <dimension ref="A1:CR153"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A17" colorId="22" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="V59" sqref="V1:X1048576"/>
+      <selection pane="topRight" activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="24" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23586,7 +23589,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23596,7 +23599,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23621,6 +23624,7 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23649,6 +23653,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="1:96" ht="15" x14ac:dyDescent="0.2">
       <c r="A8"/>
@@ -23675,6 +23680,7 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23703,6 +23709,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -23776,6 +23783,9 @@
       </c>
       <c r="X10" s="7">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23854,7 +23864,9 @@
       <c r="X12" s="9">
         <v>437876.58720307099</v>
       </c>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="9">
+        <v>531667.54672066553</v>
+      </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -24000,7 +24012,9 @@
       <c r="X13" s="9">
         <v>33551.686095275065</v>
       </c>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="9">
+        <v>39939.354826179624</v>
+      </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -24146,7 +24160,9 @@
       <c r="X14" s="9">
         <v>92304.400537834532</v>
       </c>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="9">
+        <v>138439.28393030225</v>
+      </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -24292,7 +24308,9 @@
       <c r="X15" s="9">
         <v>210279.28369719189</v>
       </c>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="9">
+        <v>231878.03089035745</v>
+      </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -24438,7 +24456,9 @@
       <c r="X16" s="9">
         <v>32510.164774691017</v>
       </c>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="9">
+        <v>35926.962881109248</v>
+      </c>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -24682,7 +24702,9 @@
       <c r="X18" s="12">
         <v>806522.12230806344</v>
       </c>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="12">
+        <v>977851.17924861412</v>
+      </c>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -24780,6 +24802,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
     </row>
     <row r="20" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -24994,7 +25017,7 @@
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:96" ht="15" x14ac:dyDescent="0.2">
@@ -25022,6 +25045,7 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -25050,10 +25074,11 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -25078,6 +25103,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -25106,6 +25132,7 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
     </row>
     <row r="30" spans="1:96" ht="15" x14ac:dyDescent="0.2">
       <c r="A30"/>
@@ -25132,6 +25159,7 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -25160,6 +25188,7 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
@@ -25233,6 +25262,9 @@
       </c>
       <c r="X32" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="33" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25311,7 +25343,9 @@
       <c r="X34" s="9">
         <v>348758.35745354905</v>
       </c>
-      <c r="Y34" s="10"/>
+      <c r="Y34" s="9">
+        <v>394000.53546289308</v>
+      </c>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
@@ -25457,7 +25491,9 @@
       <c r="X35" s="9">
         <v>30926.009239857369</v>
       </c>
-      <c r="Y35" s="10"/>
+      <c r="Y35" s="9">
+        <v>35918.422897149328</v>
+      </c>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
@@ -25603,7 +25639,9 @@
       <c r="X36" s="9">
         <v>78720.104893502605</v>
       </c>
-      <c r="Y36" s="10"/>
+      <c r="Y36" s="9">
+        <v>106279.35511918487</v>
+      </c>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
@@ -25749,7 +25787,9 @@
       <c r="X37" s="9">
         <v>188423.13246469566</v>
       </c>
-      <c r="Y37" s="10"/>
+      <c r="Y37" s="9">
+        <v>196554.57416631017</v>
+      </c>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
@@ -25895,7 +25935,9 @@
       <c r="X38" s="9">
         <v>31733.130350200649</v>
       </c>
-      <c r="Y38" s="10"/>
+      <c r="Y38" s="9">
+        <v>34988.300456913013</v>
+      </c>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
@@ -26139,7 +26181,9 @@
       <c r="X40" s="12">
         <v>678560.73440180533</v>
       </c>
-      <c r="Y40" s="10"/>
+      <c r="Y40" s="12">
+        <v>767741.18810245045</v>
+      </c>
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
@@ -26237,6 +26281,7 @@
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
     </row>
     <row r="42" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -26451,7 +26496,7 @@
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.2">
@@ -26461,7 +26506,7 @@
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:91" x14ac:dyDescent="0.2">
@@ -26499,6 +26544,7 @@
       <c r="V53" s="17"/>
       <c r="W53" s="17"/>
       <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
     </row>
     <row r="54" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
@@ -26570,7 +26616,10 @@
       <c r="W54" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="X54" s="18"/>
+      <c r="X54" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y54" s="18"/>
     </row>
     <row r="55" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -26645,8 +26694,10 @@
       <c r="W56" s="19">
         <v>29.01577755410338</v>
       </c>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="10"/>
+      <c r="X56" s="19">
+        <v>21.419496328105296</v>
+      </c>
+      <c r="Y56" s="19"/>
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -26784,8 +26835,10 @@
       <c r="W57" s="19">
         <v>28.297986060478308</v>
       </c>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="10"/>
+      <c r="X57" s="19">
+        <v>19.03829426862724</v>
+      </c>
+      <c r="Y57" s="19"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
@@ -26923,8 +26976,10 @@
       <c r="W58" s="19">
         <v>229.39648145963656</v>
       </c>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="10"/>
+      <c r="X58" s="19">
+        <v>49.981239381493566</v>
+      </c>
+      <c r="Y58" s="19"/>
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
@@ -27062,8 +27117,10 @@
       <c r="W59" s="19">
         <v>17.612010729840662</v>
       </c>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="10"/>
+      <c r="X59" s="19">
+        <v>10.271457469994232</v>
+      </c>
+      <c r="Y59" s="19"/>
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
@@ -27201,8 +27258,10 @@
       <c r="W60" s="19">
         <v>-1.0090583226137682</v>
       </c>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="10"/>
+      <c r="X60" s="19">
+        <v>10.509937830515682</v>
+      </c>
+      <c r="Y60" s="19"/>
       <c r="Z60" s="10"/>
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
@@ -27433,8 +27492,10 @@
       <c r="W62" s="19">
         <v>33.264601632747627</v>
       </c>
-      <c r="X62" s="19"/>
-      <c r="Y62" s="10"/>
+      <c r="X62" s="19">
+        <v>21.242945754575217</v>
+      </c>
+      <c r="Y62" s="19"/>
       <c r="Z62" s="10"/>
       <c r="AA62" s="10"/>
       <c r="AB62" s="10"/>
@@ -27527,6 +27588,7 @@
       <c r="V63" s="13"/>
       <c r="W63" s="13"/>
       <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
@@ -27731,7 +27793,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:91" x14ac:dyDescent="0.2">
@@ -27741,7 +27803,7 @@
     </row>
     <row r="72" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
@@ -27776,6 +27838,7 @@
       <c r="V75" s="17"/>
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
+      <c r="Y75" s="17"/>
     </row>
     <row r="76" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
@@ -27847,7 +27910,10 @@
       <c r="W76" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X76" s="7"/>
+      <c r="X76" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y76" s="7"/>
     </row>
     <row r="77" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
@@ -27922,8 +27988,10 @@
       <c r="W78" s="19">
         <v>21.884195224305842</v>
       </c>
-      <c r="X78" s="19"/>
-      <c r="Y78" s="10"/>
+      <c r="X78" s="19">
+        <v>12.972356659688032</v>
+      </c>
+      <c r="Y78" s="19"/>
       <c r="Z78" s="10"/>
       <c r="AA78" s="10"/>
       <c r="AB78" s="10"/>
@@ -28061,8 +28129,10 @@
       <c r="W79" s="19">
         <v>24.50870754757328</v>
       </c>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="10"/>
+      <c r="X79" s="19">
+        <v>16.143090492444628</v>
+      </c>
+      <c r="Y79" s="19"/>
       <c r="Z79" s="10"/>
       <c r="AA79" s="10"/>
       <c r="AB79" s="10"/>
@@ -28200,8 +28270,10 @@
       <c r="W80" s="19">
         <v>177.84503974732985</v>
       </c>
-      <c r="X80" s="19"/>
-      <c r="Y80" s="10"/>
+      <c r="X80" s="19">
+        <v>35.0091634951022</v>
+      </c>
+      <c r="Y80" s="19"/>
       <c r="Z80" s="10"/>
       <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
@@ -28339,8 +28411,10 @@
       <c r="W81" s="19">
         <v>6.8276299472231017</v>
       </c>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="10"/>
+      <c r="X81" s="19">
+        <v>4.315521982492271</v>
+      </c>
+      <c r="Y81" s="19"/>
       <c r="Z81" s="10"/>
       <c r="AA81" s="10"/>
       <c r="AB81" s="10"/>
@@ -28478,8 +28552,10 @@
       <c r="W82" s="19">
         <v>-1.1935251672687315</v>
       </c>
-      <c r="X82" s="19"/>
-      <c r="Y82" s="10"/>
+      <c r="X82" s="19">
+        <v>10.25795460702723</v>
+      </c>
+      <c r="Y82" s="19"/>
       <c r="Z82" s="10"/>
       <c r="AA82" s="10"/>
       <c r="AB82" s="10"/>
@@ -28710,8 +28786,10 @@
       <c r="W84" s="19">
         <v>23.868600667826897</v>
       </c>
-      <c r="X84" s="19"/>
-      <c r="Y84" s="10"/>
+      <c r="X84" s="19">
+        <v>13.142589775587794</v>
+      </c>
+      <c r="Y84" s="19"/>
       <c r="Z84" s="10"/>
       <c r="AA84" s="10"/>
       <c r="AB84" s="10"/>
@@ -28804,6 +28882,7 @@
       <c r="V85" s="13"/>
       <c r="W85" s="13"/>
       <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
     </row>
     <row r="86" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
@@ -29004,7 +29083,7 @@
     </row>
     <row r="90" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:92" x14ac:dyDescent="0.2">
@@ -29014,7 +29093,7 @@
     </row>
     <row r="93" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:92" x14ac:dyDescent="0.2">
@@ -29049,6 +29128,7 @@
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
@@ -29122,6 +29202,9 @@
       </c>
       <c r="X97" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y97" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="98" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29200,7 +29283,9 @@
       <c r="X99" s="19">
         <v>125.55300191233168</v>
       </c>
-      <c r="Y99" s="10"/>
+      <c r="Y99" s="19">
+        <v>134.94081831539489</v>
+      </c>
       <c r="Z99" s="10"/>
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
@@ -29346,7 +29431,9 @@
       <c r="X100" s="19">
         <v>108.49018971395033</v>
       </c>
-      <c r="Y100" s="10"/>
+      <c r="Y100" s="19">
+        <v>111.19462271643729</v>
+      </c>
       <c r="Z100" s="10"/>
       <c r="AA100" s="10"/>
       <c r="AB100" s="10"/>
@@ -29492,7 +29579,9 @@
       <c r="X101" s="19">
         <v>117.25645013139858</v>
       </c>
-      <c r="Y101" s="10"/>
+      <c r="Y101" s="19">
+        <v>130.25980800791675</v>
+      </c>
       <c r="Z101" s="10"/>
       <c r="AA101" s="10"/>
       <c r="AB101" s="10"/>
@@ -29638,7 +29727,9 @@
       <c r="X102" s="19">
         <v>111.59950529778575</v>
       </c>
-      <c r="Y102" s="10"/>
+      <c r="Y102" s="19">
+        <v>117.97132265879458</v>
+      </c>
       <c r="Z102" s="10"/>
       <c r="AA102" s="10"/>
       <c r="AB102" s="10"/>
@@ -29784,7 +29875,9 @@
       <c r="X103" s="19">
         <v>102.44865355518087</v>
       </c>
-      <c r="Y103" s="10"/>
+      <c r="Y103" s="19">
+        <v>102.68278942371656</v>
+      </c>
       <c r="Z103" s="10"/>
       <c r="AA103" s="10"/>
       <c r="AB103" s="10"/>
@@ -30028,7 +30121,9 @@
       <c r="X105" s="19">
         <v>118.85776488659697</v>
       </c>
-      <c r="Y105" s="10"/>
+      <c r="Y105" s="19">
+        <v>127.36729439584605</v>
+      </c>
       <c r="Z105" s="10"/>
       <c r="AA105" s="10"/>
       <c r="AB105" s="10"/>
@@ -30126,6 +30221,7 @@
       <c r="V106" s="13"/>
       <c r="W106" s="13"/>
       <c r="X106" s="13"/>
+      <c r="Y106" s="13"/>
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -30144,7 +30240,7 @@
     </row>
     <row r="112" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.2">
@@ -30154,7 +30250,7 @@
     </row>
     <row r="115" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:96" x14ac:dyDescent="0.2">
@@ -30189,6 +30285,7 @@
       <c r="V118" s="6"/>
       <c r="W118" s="6"/>
       <c r="X118" s="6"/>
+      <c r="Y118" s="6"/>
     </row>
     <row r="119" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
@@ -30262,6 +30359,9 @@
       </c>
       <c r="X119" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y119" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="120" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30340,7 +30440,9 @@
       <c r="X121" s="19">
         <v>54.291949977761099</v>
       </c>
-      <c r="Y121" s="10"/>
+      <c r="Y121" s="19">
+        <v>54.371008390990703</v>
+      </c>
       <c r="Z121" s="10"/>
       <c r="AA121" s="10"/>
       <c r="AB121" s="10"/>
@@ -30486,7 +30588,9 @@
       <c r="X122" s="19">
         <v>4.1600453561346313</v>
       </c>
-      <c r="Y122" s="10"/>
+      <c r="Y122" s="19">
+        <v>4.0844001289510361</v>
+      </c>
       <c r="Z122" s="10"/>
       <c r="AA122" s="10"/>
       <c r="AB122" s="10"/>
@@ -30632,7 +30736,9 @@
       <c r="X123" s="19">
         <v>11.444745033612042</v>
       </c>
-      <c r="Y123" s="10"/>
+      <c r="Y123" s="19">
+        <v>14.15750033012996</v>
+      </c>
       <c r="Z123" s="10"/>
       <c r="AA123" s="10"/>
       <c r="AB123" s="10"/>
@@ -30778,7 +30884,9 @@
       <c r="X124" s="19">
         <v>26.07235162941662</v>
       </c>
-      <c r="Y124" s="10"/>
+      <c r="Y124" s="19">
+        <v>23.713018484932821</v>
+      </c>
       <c r="Z124" s="10"/>
       <c r="AA124" s="10"/>
       <c r="AB124" s="10"/>
@@ -30924,7 +31032,9 @@
       <c r="X125" s="19">
         <v>4.0309080030756137</v>
       </c>
-      <c r="Y125" s="10"/>
+      <c r="Y125" s="19">
+        <v>3.6740726649954767</v>
+      </c>
       <c r="Z125" s="10"/>
       <c r="AA125" s="10"/>
       <c r="AB125" s="10"/>
@@ -31168,7 +31278,9 @@
       <c r="X127" s="19">
         <v>100</v>
       </c>
-      <c r="Y127" s="10"/>
+      <c r="Y127" s="19">
+        <v>100</v>
+      </c>
       <c r="Z127" s="10"/>
       <c r="AA127" s="10"/>
       <c r="AB127" s="10"/>
@@ -31266,6 +31378,7 @@
       <c r="V128" s="13"/>
       <c r="W128" s="13"/>
       <c r="X128" s="13"/>
+      <c r="Y128" s="13"/>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -31480,7 +31593,7 @@
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:96" x14ac:dyDescent="0.2">
@@ -31490,7 +31603,7 @@
     </row>
     <row r="137" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:96" x14ac:dyDescent="0.2">
@@ -31525,6 +31638,7 @@
       <c r="V140" s="6"/>
       <c r="W140" s="6"/>
       <c r="X140" s="6"/>
+      <c r="Y140" s="6"/>
     </row>
     <row r="141" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
@@ -31598,6 +31712,9 @@
       </c>
       <c r="X141" s="16">
         <v>2022</v>
+      </c>
+      <c r="Y141" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="142" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -31676,7 +31793,9 @@
       <c r="X143" s="19">
         <v>51.396778471274473</v>
       </c>
-      <c r="Y143" s="10"/>
+      <c r="Y143" s="19">
+        <v>51.319447434714945</v>
+      </c>
       <c r="Z143" s="10"/>
       <c r="AA143" s="10"/>
       <c r="AB143" s="10"/>
@@ -31822,7 +31941,9 @@
       <c r="X144" s="19">
         <v>4.5575889779594485</v>
       </c>
-      <c r="Y144" s="10"/>
+      <c r="Y144" s="19">
+        <v>4.6784545956073194</v>
+      </c>
       <c r="Z144" s="10"/>
       <c r="AA144" s="10"/>
       <c r="AB144" s="10"/>
@@ -31968,7 +32089,9 @@
       <c r="X145" s="19">
         <v>11.601040393664896</v>
       </c>
-      <c r="Y145" s="10"/>
+      <c r="Y145" s="19">
+        <v>13.843122756233123</v>
+      </c>
       <c r="Z145" s="10"/>
       <c r="AA145" s="10"/>
       <c r="AB145" s="10"/>
@@ -32114,7 +32237,9 @@
       <c r="X146" s="19">
         <v>27.768057140942986</v>
       </c>
-      <c r="Y146" s="10"/>
+      <c r="Y146" s="19">
+        <v>25.601671137654421</v>
+      </c>
       <c r="Z146" s="10"/>
       <c r="AA146" s="10"/>
       <c r="AB146" s="10"/>
@@ -32260,7 +32385,9 @@
       <c r="X147" s="19">
         <v>4.6765350161581978</v>
       </c>
-      <c r="Y147" s="10"/>
+      <c r="Y147" s="19">
+        <v>4.5573040757901913</v>
+      </c>
       <c r="Z147" s="10"/>
       <c r="AA147" s="10"/>
       <c r="AB147" s="10"/>
@@ -32504,7 +32631,9 @@
       <c r="X149" s="19">
         <v>100</v>
       </c>
-      <c r="Y149" s="10"/>
+      <c r="Y149" s="19">
+        <v>100</v>
+      </c>
       <c r="Z149" s="10"/>
       <c r="AA149" s="10"/>
       <c r="AB149" s="10"/>
@@ -32602,6 +32731,7 @@
       <c r="V150" s="13"/>
       <c r="W150" s="13"/>
       <c r="X150" s="13"/>
+      <c r="Y150" s="13"/>
     </row>
     <row r="151" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -32798,12 +32928,12 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="22" max="23" man="1"/>
-    <brk id="44" max="23" man="1"/>
-    <brk id="66" max="23" man="1"/>
-    <brk id="88" max="23" man="1"/>
-    <brk id="109" max="23" man="1"/>
-    <brk id="131" max="23" man="1"/>
+    <brk id="22" max="24" man="1"/>
+    <brk id="44" max="24" man="1"/>
+    <brk id="66" max="24" man="1"/>
+    <brk id="88" max="24" man="1"/>
+    <brk id="109" max="24" man="1"/>
+    <brk id="131" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5C01E-A02D-48E3-BF1B-3E88554E6260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD857782-4B0E-40CA-9146-91B8DE4BD3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="1" r:id="rId1"/>
@@ -618,13 +618,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23565,41 +23565,41 @@
   <dimension ref="A1:CR153"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="Y6" sqref="Y6"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23626,7 +23626,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -23655,7 +23655,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:96" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" ht="15" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -23682,7 +23682,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
@@ -23711,7 +23711,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -23788,10 +23788,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -23862,10 +23862,10 @@
         <v>339397.70429972827</v>
       </c>
       <c r="X12" s="9">
-        <v>437876.58720307099</v>
+        <v>437520.46481490298</v>
       </c>
       <c r="Y12" s="9">
-        <v>531667.54672066553</v>
+        <v>530746.20742036367</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -23939,7 +23939,7 @@
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -24010,10 +24010,10 @@
         <v>26151.373942424285</v>
       </c>
       <c r="X13" s="9">
-        <v>33551.686095275065</v>
+        <v>33830.414429152777</v>
       </c>
       <c r="Y13" s="9">
-        <v>39939.354826179624</v>
+        <v>40502.051408822132</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -24087,7 +24087,7 @@
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -24235,7 +24235,7 @@
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -24306,10 +24306,10 @@
         <v>178790.6544512801</v>
       </c>
       <c r="X15" s="9">
-        <v>210279.28369719189</v>
+        <v>211049.61194969338</v>
       </c>
       <c r="Y15" s="9">
-        <v>231878.03089035745</v>
+        <v>231717.89799947586</v>
       </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -24383,7 +24383,7 @@
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
     </row>
-    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -24454,10 +24454,10 @@
         <v>32841.555220923539</v>
       </c>
       <c r="X16" s="9">
-        <v>32510.164774691017</v>
+        <v>32618.34485428418</v>
       </c>
       <c r="Y16" s="9">
-        <v>35926.962881109248</v>
+        <v>35993.424470288002</v>
       </c>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
@@ -24531,7 +24531,7 @@
       <c r="CQ16" s="10"/>
       <c r="CR16" s="10"/>
     </row>
-    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -24629,7 +24629,7 @@
       <c r="CQ17" s="10"/>
       <c r="CR17" s="10"/>
     </row>
-    <row r="18" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>1</v>
       </c>
@@ -24700,10 +24700,10 @@
         <v>605203.56675862649</v>
       </c>
       <c r="X18" s="12">
-        <v>806522.12230806344</v>
+        <v>807323.23658586794</v>
       </c>
       <c r="Y18" s="12">
-        <v>977851.17924861412</v>
+        <v>977398.86522925191</v>
       </c>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
@@ -24777,7 +24777,7 @@
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
     </row>
-    <row r="19" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -24804,12 +24804,12 @@
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -24907,7 +24907,7 @@
       <c r="CQ21" s="10"/>
       <c r="CR21" s="10"/>
     </row>
-    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -25005,22 +25005,22 @@
       <c r="CQ22" s="10"/>
       <c r="CR22" s="10"/>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:96" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" ht="15" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -25047,7 +25047,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -25076,9 +25076,9 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -25105,7 +25105,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -25134,7 +25134,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:96" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" ht="15" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -25161,7 +25161,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>8</v>
@@ -25190,7 +25190,7 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -25267,10 +25267,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -25341,10 +25341,10 @@
         <v>286139.11492931657</v>
       </c>
       <c r="X34" s="9">
-        <v>348758.35745354905</v>
+        <v>348504.95269622037</v>
       </c>
       <c r="Y34" s="9">
-        <v>394000.53546289308</v>
+        <v>393366.74615047674</v>
       </c>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
@@ -25418,7 +25418,7 @@
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
     </row>
-    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -25489,10 +25489,10 @@
         <v>24838.430860782097</v>
       </c>
       <c r="X35" s="9">
-        <v>30926.009239857369</v>
+        <v>31218.924993293494</v>
       </c>
       <c r="Y35" s="9">
-        <v>35918.422897149328</v>
+        <v>36466.980809222077</v>
       </c>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
@@ -25566,7 +25566,7 @@
       <c r="CQ35" s="10"/>
       <c r="CR35" s="10"/>
     </row>
-    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -25714,7 +25714,7 @@
       <c r="CQ36" s="10"/>
       <c r="CR36" s="10"/>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -25785,10 +25785,10 @@
         <v>176380.5230517459</v>
       </c>
       <c r="X37" s="9">
-        <v>188423.13246469566</v>
+        <v>189086.8808296058</v>
       </c>
       <c r="Y37" s="9">
-        <v>196554.57416631017</v>
+        <v>196435.16390133611</v>
       </c>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
@@ -25862,7 +25862,7 @@
       <c r="CQ37" s="10"/>
       <c r="CR37" s="10"/>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -25933,10 +25933,10 @@
         <v>32116.448242811439</v>
       </c>
       <c r="X38" s="9">
-        <v>31733.130350200649</v>
+        <v>31840.587131549175</v>
       </c>
       <c r="Y38" s="9">
-        <v>34988.300456913013</v>
+        <v>35054.307069508097</v>
       </c>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
@@ -26010,7 +26010,7 @@
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
     </row>
-    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -26108,7 +26108,7 @@
       <c r="CQ39" s="10"/>
       <c r="CR39" s="10"/>
     </row>
-    <row r="40" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>1</v>
       </c>
@@ -26179,10 +26179,10 @@
         <v>547806.8943569262</v>
       </c>
       <c r="X40" s="12">
-        <v>678560.73440180533</v>
+        <v>679371.45054417138</v>
       </c>
       <c r="Y40" s="12">
-        <v>767741.18810245045</v>
+        <v>767602.55304972793</v>
       </c>
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
@@ -26256,7 +26256,7 @@
       <c r="CQ40" s="10"/>
       <c r="CR40" s="10"/>
     </row>
-    <row r="41" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -26283,12 +26283,12 @@
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -26386,7 +26386,7 @@
       <c r="CQ43" s="10"/>
       <c r="CR43" s="10"/>
     </row>
-    <row r="44" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -26484,40 +26484,40 @@
       <c r="CQ44" s="10"/>
       <c r="CR44" s="10"/>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="17" t="s">
         <v>8</v>
@@ -26546,7 +26546,7 @@
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
     </row>
-    <row r="54" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>7</v>
       </c>
@@ -26621,10 +26621,10 @@
       </c>
       <c r="Y54" s="18"/>
     </row>
-    <row r="55" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -26692,10 +26692,10 @@
         <v>13.863102770522602</v>
       </c>
       <c r="W56" s="19">
-        <v>29.01577755410338</v>
+        <v>28.910849800127323</v>
       </c>
       <c r="X56" s="19">
-        <v>21.419496328105296</v>
+        <v>21.307744460570717</v>
       </c>
       <c r="Y56" s="19"/>
       <c r="Z56" s="10"/>
@@ -26765,7 +26765,7 @@
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
     </row>
-    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -26833,10 +26833,10 @@
         <v>-5.5477631872865203</v>
       </c>
       <c r="W57" s="19">
-        <v>28.297986060478308</v>
+        <v>29.363812791002545</v>
       </c>
       <c r="X57" s="19">
-        <v>19.03829426862724</v>
+        <v>19.720825453205748</v>
       </c>
       <c r="Y57" s="19"/>
       <c r="Z57" s="10"/>
@@ -26906,7 +26906,7 @@
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
     </row>
-    <row r="58" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -27047,7 +27047,7 @@
       <c r="CL58" s="10"/>
       <c r="CM58" s="10"/>
     </row>
-    <row r="59" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -27115,10 +27115,10 @@
         <v>9.5567341808355621</v>
       </c>
       <c r="W59" s="19">
-        <v>17.612010729840662</v>
+        <v>18.042865605821561</v>
       </c>
       <c r="X59" s="19">
-        <v>10.271457469994232</v>
+        <v>9.7930936043175763</v>
       </c>
       <c r="Y59" s="19"/>
       <c r="Z59" s="10"/>
@@ -27188,7 +27188,7 @@
       <c r="CL59" s="10"/>
       <c r="CM59" s="10"/>
     </row>
-    <row r="60" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -27256,10 +27256,10 @@
         <v>14.367344736000078</v>
       </c>
       <c r="W60" s="19">
-        <v>-1.0090583226137682</v>
+        <v>-0.67965833267589915</v>
       </c>
       <c r="X60" s="19">
-        <v>10.509937830515682</v>
+        <v>10.347182332767972</v>
       </c>
       <c r="Y60" s="19"/>
       <c r="Z60" s="10"/>
@@ -27329,7 +27329,7 @@
       <c r="CL60" s="10"/>
       <c r="CM60" s="10"/>
     </row>
-    <row r="61" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -27422,7 +27422,7 @@
       <c r="CL61" s="10"/>
       <c r="CM61" s="10"/>
     </row>
-    <row r="62" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>1</v>
       </c>
@@ -27490,10 +27490,10 @@
         <v>9.828419774340432</v>
       </c>
       <c r="W62" s="19">
-        <v>33.264601632747627</v>
+        <v>33.396972676443738</v>
       </c>
       <c r="X62" s="19">
-        <v>21.242945754575217</v>
+        <v>21.066608879316533</v>
       </c>
       <c r="Y62" s="19"/>
       <c r="Z62" s="10"/>
@@ -27563,7 +27563,7 @@
       <c r="CL62" s="10"/>
       <c r="CM62" s="10"/>
     </row>
-    <row r="63" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -27590,12 +27590,12 @@
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -27688,7 +27688,7 @@
       <c r="CL65" s="10"/>
       <c r="CM65" s="10"/>
     </row>
-    <row r="66" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -27781,37 +27781,37 @@
       <c r="CL66" s="10"/>
       <c r="CM66" s="10"/>
     </row>
-    <row r="67" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="17" t="s">
         <v>8</v>
@@ -27840,7 +27840,7 @@
       <c r="X75" s="17"/>
       <c r="Y75" s="17"/>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>7</v>
       </c>
@@ -27915,10 +27915,10 @@
       </c>
       <c r="Y76" s="7"/>
     </row>
-    <row r="77" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
     </row>
-    <row r="78" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -27986,10 +27986,10 @@
         <v>8.4755261002917592</v>
       </c>
       <c r="W78" s="19">
-        <v>21.884195224305842</v>
+        <v>21.795635239282035</v>
       </c>
       <c r="X78" s="19">
-        <v>12.972356659688032</v>
+        <v>12.872641581470106</v>
       </c>
       <c r="Y78" s="19"/>
       <c r="Z78" s="10"/>
@@ -28059,7 +28059,7 @@
       <c r="CL78" s="10"/>
       <c r="CM78" s="10"/>
     </row>
-    <row r="79" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -28127,10 +28127,10 @@
         <v>-4.3751376617377105</v>
       </c>
       <c r="W79" s="19">
-        <v>24.50870754757328</v>
+        <v>25.687992000274434</v>
       </c>
       <c r="X79" s="19">
-        <v>16.143090492444628</v>
+        <v>16.810494970778066</v>
       </c>
       <c r="Y79" s="19"/>
       <c r="Z79" s="10"/>
@@ -28200,7 +28200,7 @@
       <c r="CL79" s="10"/>
       <c r="CM79" s="10"/>
     </row>
-    <row r="80" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
@@ -28341,7 +28341,7 @@
       <c r="CL80" s="10"/>
       <c r="CM80" s="10"/>
     </row>
-    <row r="81" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -28409,10 +28409,10 @@
         <v>9.7635073996673611</v>
       </c>
       <c r="W81" s="19">
-        <v>6.8276299472231017</v>
+        <v>7.2039460809015594</v>
       </c>
       <c r="X81" s="19">
-        <v>4.315521982492271</v>
+        <v>3.8861940286339518</v>
       </c>
       <c r="Y81" s="19"/>
       <c r="Z81" s="10"/>
@@ -28482,7 +28482,7 @@
       <c r="CL81" s="10"/>
       <c r="CM81" s="10"/>
     </row>
-    <row r="82" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
@@ -28550,10 +28550,10 @@
         <v>14.292076969672181</v>
       </c>
       <c r="W82" s="19">
-        <v>-1.1935251672687315</v>
+        <v>-0.85894028248908683</v>
       </c>
       <c r="X82" s="19">
-        <v>10.25795460702723</v>
+        <v>10.093155395286701</v>
       </c>
       <c r="Y82" s="19"/>
       <c r="Z82" s="10"/>
@@ -28623,7 +28623,7 @@
       <c r="CL82" s="10"/>
       <c r="CM82" s="10"/>
     </row>
-    <row r="83" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -28716,7 +28716,7 @@
       <c r="CL83" s="10"/>
       <c r="CM83" s="10"/>
     </row>
-    <row r="84" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>1</v>
       </c>
@@ -28784,10 +28784,10 @@
         <v>6.3394295014840765</v>
       </c>
       <c r="W84" s="19">
-        <v>23.868600667826897</v>
+        <v>24.016593719889116</v>
       </c>
       <c r="X84" s="19">
-        <v>13.142589775587794</v>
+        <v>12.987166657486711</v>
       </c>
       <c r="Y84" s="19"/>
       <c r="Z84" s="10"/>
@@ -28857,7 +28857,7 @@
       <c r="CL84" s="10"/>
       <c r="CM84" s="10"/>
     </row>
-    <row r="85" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -28884,12 +28884,12 @@
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
     </row>
-    <row r="86" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -28982,7 +28982,7 @@
       <c r="CL87" s="10"/>
       <c r="CM87" s="10"/>
     </row>
-    <row r="88" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -29076,32 +29076,32 @@
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
     </row>
-    <row r="89" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="6" t="s">
         <v>8</v>
@@ -29130,7 +29130,7 @@
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>7</v>
       </c>
@@ -29207,10 +29207,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="98" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
     </row>
-    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -29281,10 +29281,10 @@
         <v>118.61283081957106</v>
       </c>
       <c r="X99" s="19">
-        <v>125.55300191233168</v>
+        <v>125.54210820535292</v>
       </c>
       <c r="Y99" s="19">
-        <v>134.94081831539489</v>
+        <v>134.92401495914311</v>
       </c>
       <c r="Z99" s="10"/>
       <c r="AA99" s="10"/>
@@ -29358,7 +29358,7 @@
       <c r="CQ99" s="10"/>
       <c r="CR99" s="10"/>
     </row>
-    <row r="100" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
@@ -29429,10 +29429,10 @@
         <v>105.28593407933518</v>
       </c>
       <c r="X100" s="19">
-        <v>108.49018971395033</v>
+        <v>108.36508443650858</v>
       </c>
       <c r="Y100" s="19">
-        <v>111.19462271643729</v>
+        <v>111.06499773235856</v>
       </c>
       <c r="Z100" s="10"/>
       <c r="AA100" s="10"/>
@@ -29506,7 +29506,7 @@
       <c r="CQ100" s="10"/>
       <c r="CR100" s="10"/>
     </row>
-    <row r="101" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>4</v>
       </c>
@@ -29654,7 +29654,7 @@
       <c r="CQ101" s="10"/>
       <c r="CR101" s="10"/>
     </row>
-    <row r="102" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -29725,10 +29725,10 @@
         <v>101.36643851477135</v>
       </c>
       <c r="X102" s="19">
-        <v>111.59950529778575</v>
+        <v>111.61515332196903</v>
       </c>
       <c r="Y102" s="19">
-        <v>117.97132265879458</v>
+        <v>117.9615163585789</v>
       </c>
       <c r="Z102" s="10"/>
       <c r="AA102" s="10"/>
@@ -29802,7 +29802,7 @@
       <c r="CQ102" s="10"/>
       <c r="CR102" s="10"/>
     </row>
-    <row r="103" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -29873,10 +29873,10 @@
         <v>102.25774336137682</v>
       </c>
       <c r="X103" s="19">
-        <v>102.44865355518087</v>
+        <v>102.44266137279976</v>
       </c>
       <c r="Y103" s="19">
-        <v>102.68278942371656</v>
+        <v>102.67903570000045</v>
       </c>
       <c r="Z103" s="10"/>
       <c r="AA103" s="10"/>
@@ -29950,7 +29950,7 @@
       <c r="CQ103" s="10"/>
       <c r="CR103" s="10"/>
     </row>
-    <row r="104" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -30048,7 +30048,7 @@
       <c r="CQ104" s="10"/>
       <c r="CR104" s="10"/>
     </row>
-    <row r="105" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>1</v>
       </c>
@@ -30119,10 +30119,10 @@
         <v>110.47753743024329</v>
       </c>
       <c r="X105" s="19">
-        <v>118.85776488659697</v>
+        <v>118.83384795448913</v>
       </c>
       <c r="Y105" s="19">
-        <v>127.36729439584605</v>
+        <v>127.33137238092702</v>
       </c>
       <c r="Z105" s="10"/>
       <c r="AA105" s="10"/>
@@ -30196,7 +30196,7 @@
       <c r="CQ105" s="10"/>
       <c r="CR105" s="10"/>
     </row>
-    <row r="106" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -30223,42 +30223,42 @@
       <c r="X106" s="13"/>
       <c r="Y106" s="13"/>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="6" t="s">
         <v>8</v>
@@ -30287,7 +30287,7 @@
       <c r="X118" s="6"/>
       <c r="Y118" s="6"/>
     </row>
-    <row r="119" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>7</v>
       </c>
@@ -30364,10 +30364,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="120" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
     </row>
-    <row r="121" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -30438,10 +30438,10 @@
         <v>56.079924663611635</v>
       </c>
       <c r="X121" s="19">
-        <v>54.291949977761099</v>
+        <v>54.193964076291977</v>
       </c>
       <c r="Y121" s="19">
-        <v>54.371008390990703</v>
+        <v>54.30190542485186</v>
       </c>
       <c r="Z121" s="10"/>
       <c r="AA121" s="10"/>
@@ -30515,7 +30515,7 @@
       <c r="CQ121" s="10"/>
       <c r="CR121" s="10"/>
     </row>
-    <row r="122" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
@@ -30586,10 +30586,10 @@
         <v>4.3210872140901051</v>
       </c>
       <c r="X122" s="19">
-        <v>4.1600453561346313</v>
+        <v>4.1904423031622384</v>
       </c>
       <c r="Y122" s="19">
-        <v>4.0844001289510361</v>
+        <v>4.1438611041687929</v>
       </c>
       <c r="Z122" s="10"/>
       <c r="AA122" s="10"/>
@@ -30663,7 +30663,7 @@
       <c r="CQ122" s="10"/>
       <c r="CR122" s="10"/>
     </row>
-    <row r="123" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>4</v>
       </c>
@@ -30734,10 +30734,10 @@
         <v>4.6302236773575478</v>
       </c>
       <c r="X123" s="19">
-        <v>11.444745033612042</v>
+        <v>11.433388307784316</v>
       </c>
       <c r="Y123" s="19">
-        <v>14.15750033012996</v>
+        <v>14.164052042134395</v>
       </c>
       <c r="Z123" s="10"/>
       <c r="AA123" s="10"/>
@@ -30811,7 +30811,7 @@
       <c r="CQ123" s="10"/>
       <c r="CR123" s="10"/>
     </row>
-    <row r="124" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
@@ -30882,10 +30882,10 @@
         <v>29.542234096347819</v>
       </c>
       <c r="X124" s="19">
-        <v>26.07235162941662</v>
+        <v>26.141897369659802</v>
       </c>
       <c r="Y124" s="19">
-        <v>23.713018484932821</v>
+        <v>23.707608658326578</v>
       </c>
       <c r="Z124" s="10"/>
       <c r="AA124" s="10"/>
@@ -30959,7 +30959,7 @@
       <c r="CQ124" s="10"/>
       <c r="CR124" s="10"/>
     </row>
-    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
@@ -31030,10 +31030,10 @@
         <v>5.4265303485928973</v>
       </c>
       <c r="X125" s="19">
-        <v>4.0309080030756137</v>
+        <v>4.040307943101654</v>
       </c>
       <c r="Y125" s="19">
-        <v>3.6740726649954767</v>
+        <v>3.6825727705183735</v>
       </c>
       <c r="Z125" s="10"/>
       <c r="AA125" s="10"/>
@@ -31107,7 +31107,7 @@
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
     </row>
-    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -31205,7 +31205,7 @@
       <c r="CQ126" s="10"/>
       <c r="CR126" s="10"/>
     </row>
-    <row r="127" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>1</v>
       </c>
@@ -31353,7 +31353,7 @@
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
     </row>
-    <row r="128" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -31380,12 +31380,12 @@
       <c r="X128" s="13"/>
       <c r="Y128" s="13"/>
     </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -31483,7 +31483,7 @@
       <c r="CQ130" s="10"/>
       <c r="CR130" s="10"/>
     </row>
-    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -31581,37 +31581,37 @@
       <c r="CQ131" s="10"/>
       <c r="CR131" s="10"/>
     </row>
-    <row r="132" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="6" t="s">
         <v>8</v>
@@ -31640,7 +31640,7 @@
       <c r="X140" s="6"/>
       <c r="Y140" s="6"/>
     </row>
-    <row r="141" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>7</v>
       </c>
@@ -31717,10 +31717,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="142" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
     </row>
-    <row r="143" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>6</v>
       </c>
@@ -31791,10 +31791,10 @@
         <v>52.233573158150371</v>
       </c>
       <c r="X143" s="19">
-        <v>51.396778471274473</v>
+        <v>51.29814513357465</v>
       </c>
       <c r="Y143" s="19">
-        <v>51.319447434714945</v>
+        <v>51.246148750757612</v>
       </c>
       <c r="Z143" s="10"/>
       <c r="AA143" s="10"/>
@@ -31868,7 +31868,7 @@
       <c r="CQ143" s="10"/>
       <c r="CR143" s="10"/>
     </row>
-    <row r="144" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
@@ -31939,10 +31939,10 @@
         <v>4.5341581343075426</v>
       </c>
       <c r="X144" s="19">
-        <v>4.5575889779594485</v>
+        <v>4.5952659577153812</v>
       </c>
       <c r="Y144" s="19">
-        <v>4.6784545956073194</v>
+        <v>4.7507633558977522</v>
       </c>
       <c r="Z144" s="10"/>
       <c r="AA144" s="10"/>
@@ -32016,7 +32016,7 @@
       <c r="CQ144" s="10"/>
       <c r="CR144" s="10"/>
     </row>
-    <row r="145" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>4</v>
       </c>
@@ -32087,10 +32087,10 @@
         <v>5.1719643480445336</v>
       </c>
       <c r="X145" s="19">
-        <v>11.601040393664896</v>
+        <v>11.58719649323627</v>
       </c>
       <c r="Y145" s="19">
-        <v>13.843122756233123</v>
+        <v>13.845622932978927</v>
       </c>
       <c r="Z145" s="10"/>
       <c r="AA145" s="10"/>
@@ -32164,7 +32164,7 @@
       <c r="CQ145" s="10"/>
       <c r="CR145" s="10"/>
     </row>
-    <row r="146" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
@@ -32235,10 +32235,10 @@
         <v>32.197572697364471</v>
       </c>
       <c r="X146" s="19">
-        <v>27.768057140942986</v>
+        <v>27.832620973128712</v>
       </c>
       <c r="Y146" s="19">
-        <v>25.601671137654421</v>
+        <v>25.590738738542257</v>
       </c>
       <c r="Z146" s="10"/>
       <c r="AA146" s="10"/>
@@ -32312,7 +32312,7 @@
       <c r="CQ146" s="10"/>
       <c r="CR146" s="10"/>
     </row>
-    <row r="147" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>2</v>
       </c>
@@ -32383,10 +32383,10 @@
         <v>5.8627316621330827</v>
       </c>
       <c r="X147" s="19">
-        <v>4.6765350161581978</v>
+        <v>4.6867714423449947</v>
       </c>
       <c r="Y147" s="19">
-        <v>4.5573040757901913</v>
+        <v>4.5667262218234388</v>
       </c>
       <c r="Z147" s="10"/>
       <c r="AA147" s="10"/>
@@ -32460,7 +32460,7 @@
       <c r="CQ147" s="10"/>
       <c r="CR147" s="10"/>
     </row>
-    <row r="148" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -32558,7 +32558,7 @@
       <c r="CQ148" s="10"/>
       <c r="CR148" s="10"/>
     </row>
-    <row r="149" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>1</v>
       </c>
@@ -32706,7 +32706,7 @@
       <c r="CQ149" s="10"/>
       <c r="CR149" s="10"/>
     </row>
-    <row r="150" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -32733,12 +32733,12 @@
       <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
     </row>
-    <row r="151" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -32830,7 +32830,7 @@
       <c r="CL152" s="10"/>
       <c r="CM152" s="10"/>
     </row>
-    <row r="153" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>

--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD857782-4B0E-40CA-9146-91B8DE4BD3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1FEFAD-EDDC-4940-9F8A-3F9B414C8E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$Y$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$Z$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -705,8 +708,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -746,10 +751,12 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{0503E897-D53E-498A-B7B0-86646E26F318}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3826074F-577E-45B0-8ED3-C78F6D5AD1E9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23565,41 +23572,41 @@
   <dimension ref="A1:CR153"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="26" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23625,8 +23632,9 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -23654,8 +23662,9 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:96" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" ht="15" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -23681,8 +23690,9 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>8</v>
@@ -23710,8 +23720,9 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -23787,11 +23798,14 @@
       <c r="Y10" s="7">
         <v>2023</v>
       </c>
+      <c r="Z10" s="7">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -23867,7 +23881,9 @@
       <c r="Y12" s="9">
         <v>530746.20742036367</v>
       </c>
-      <c r="Z12" s="10"/>
+      <c r="Z12" s="9">
+        <v>578701.92499655567</v>
+      </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
@@ -23939,7 +23955,7 @@
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -24015,7 +24031,9 @@
       <c r="Y13" s="9">
         <v>40502.051408822132</v>
       </c>
-      <c r="Z13" s="10"/>
+      <c r="Z13" s="9">
+        <v>50132.193637816912</v>
+      </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
@@ -24087,7 +24105,7 @@
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -24163,7 +24181,9 @@
       <c r="Y14" s="9">
         <v>138439.28393030225</v>
       </c>
-      <c r="Z14" s="10"/>
+      <c r="Z14" s="9">
+        <v>159008.51833464904</v>
+      </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
@@ -24235,7 +24255,7 @@
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -24311,7 +24331,9 @@
       <c r="Y15" s="9">
         <v>231717.89799947586</v>
       </c>
-      <c r="Z15" s="10"/>
+      <c r="Z15" s="9">
+        <v>248172.46243298653</v>
+      </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
@@ -24383,7 +24405,7 @@
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -24459,7 +24481,9 @@
       <c r="Y16" s="9">
         <v>35993.424470288002</v>
       </c>
-      <c r="Z16" s="10"/>
+      <c r="Z16" s="9">
+        <v>38630.997524294216</v>
+      </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
@@ -24531,7 +24555,7 @@
       <c r="CQ16" s="10"/>
       <c r="CR16" s="10"/>
     </row>
-    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -24629,7 +24653,7 @@
       <c r="CQ17" s="10"/>
       <c r="CR17" s="10"/>
     </row>
-    <row r="18" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>1</v>
       </c>
@@ -24705,7 +24729,9 @@
       <c r="Y18" s="12">
         <v>977398.86522925191</v>
       </c>
-      <c r="Z18" s="10"/>
+      <c r="Z18" s="12">
+        <v>1074646.0969263024</v>
+      </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
@@ -24777,7 +24803,7 @@
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
     </row>
-    <row r="19" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -24803,13 +24829,14 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -24907,7 +24934,7 @@
       <c r="CQ21" s="10"/>
       <c r="CR21" s="10"/>
     </row>
-    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -25005,22 +25032,22 @@
       <c r="CQ22" s="10"/>
       <c r="CR22" s="10"/>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:96" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" ht="15" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -25046,8 +25073,9 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -25075,10 +25103,11 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -25104,8 +25133,9 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -25133,8 +25163,9 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:96" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" ht="15" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -25160,8 +25191,9 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
         <v>8</v>
@@ -25189,8 +25221,9 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -25266,11 +25299,14 @@
       <c r="Y32" s="16">
         <v>2023</v>
       </c>
+      <c r="Z32" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="33" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -25346,7 +25382,9 @@
       <c r="Y34" s="9">
         <v>393366.74615047674</v>
       </c>
-      <c r="Z34" s="10"/>
+      <c r="Z34" s="9">
+        <v>423085.78592384217</v>
+      </c>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
@@ -25418,7 +25456,7 @@
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -25494,7 +25532,9 @@
       <c r="Y35" s="9">
         <v>36466.980809222077</v>
       </c>
-      <c r="Z35" s="10"/>
+      <c r="Z35" s="9">
+        <v>44122.212732615284</v>
+      </c>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
@@ -25566,7 +25606,7 @@
       <c r="CQ35" s="10"/>
       <c r="CR35" s="10"/>
     </row>
-    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -25642,7 +25682,9 @@
       <c r="Y36" s="9">
         <v>106279.35511918487</v>
       </c>
-      <c r="Z36" s="10"/>
+      <c r="Z36" s="9">
+        <v>123539.2748077946</v>
+      </c>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
@@ -25714,7 +25756,7 @@
       <c r="CQ36" s="10"/>
       <c r="CR36" s="10"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -25790,7 +25832,9 @@
       <c r="Y37" s="9">
         <v>196435.16390133611</v>
       </c>
-      <c r="Z37" s="10"/>
+      <c r="Z37" s="9">
+        <v>207117.18165034463</v>
+      </c>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
@@ -25862,7 +25906,7 @@
       <c r="CQ37" s="10"/>
       <c r="CR37" s="10"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -25938,7 +25982,9 @@
       <c r="Y38" s="9">
         <v>35054.307069508097</v>
       </c>
-      <c r="Z38" s="10"/>
+      <c r="Z38" s="9">
+        <v>37304.779386455986</v>
+      </c>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
@@ -26010,7 +26056,7 @@
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -26108,7 +26154,7 @@
       <c r="CQ39" s="10"/>
       <c r="CR39" s="10"/>
     </row>
-    <row r="40" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>1</v>
       </c>
@@ -26184,7 +26230,9 @@
       <c r="Y40" s="12">
         <v>767602.55304972793</v>
       </c>
-      <c r="Z40" s="10"/>
+      <c r="Z40" s="12">
+        <v>835169.23450105265</v>
+      </c>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
@@ -26256,7 +26304,7 @@
       <c r="CQ40" s="10"/>
       <c r="CR40" s="10"/>
     </row>
-    <row r="41" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -26282,13 +26330,14 @@
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -26386,7 +26435,7 @@
       <c r="CQ43" s="10"/>
       <c r="CR43" s="10"/>
     </row>
-    <row r="44" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -26484,40 +26533,40 @@
       <c r="CQ44" s="10"/>
       <c r="CR44" s="10"/>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="17" t="s">
         <v>8</v>
@@ -26545,8 +26594,9 @@
       <c r="W53" s="17"/>
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
     </row>
-    <row r="54" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>7</v>
       </c>
@@ -26619,12 +26669,15 @@
       <c r="X54" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Y54" s="18"/>
+      <c r="Y54" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z54" s="18"/>
     </row>
-    <row r="55" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -26697,8 +26750,10 @@
       <c r="X56" s="19">
         <v>21.307744460570717</v>
       </c>
-      <c r="Y56" s="19"/>
-      <c r="Z56" s="10"/>
+      <c r="Y56" s="19">
+        <v>9.0355271325019544</v>
+      </c>
+      <c r="Z56" s="19"/>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
@@ -26765,7 +26820,7 @@
       <c r="CL56" s="10"/>
       <c r="CM56" s="10"/>
     </row>
-    <row r="57" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -26838,8 +26893,10 @@
       <c r="X57" s="19">
         <v>19.720825453205748</v>
       </c>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="10"/>
+      <c r="Y57" s="19">
+        <v>23.776924610038748</v>
+      </c>
+      <c r="Z57" s="19"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
@@ -26906,7 +26963,7 @@
       <c r="CL57" s="10"/>
       <c r="CM57" s="10"/>
     </row>
-    <row r="58" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -26979,8 +27036,10 @@
       <c r="X58" s="19">
         <v>49.981239381493566</v>
       </c>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="10"/>
+      <c r="Y58" s="19">
+        <v>14.857946256571523</v>
+      </c>
+      <c r="Z58" s="19"/>
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
@@ -27047,7 +27106,7 @@
       <c r="CL58" s="10"/>
       <c r="CM58" s="10"/>
     </row>
-    <row r="59" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -27120,8 +27179,10 @@
       <c r="X59" s="19">
         <v>9.7930936043175763</v>
       </c>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="10"/>
+      <c r="Y59" s="19">
+        <v>7.1011193246487636</v>
+      </c>
+      <c r="Z59" s="19"/>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
       <c r="AC59" s="10"/>
@@ -27188,7 +27249,7 @@
       <c r="CL59" s="10"/>
       <c r="CM59" s="10"/>
     </row>
-    <row r="60" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
@@ -27261,8 +27322,10 @@
       <c r="X60" s="19">
         <v>10.347182332767972</v>
       </c>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="10"/>
+      <c r="Y60" s="19">
+        <v>7.3279302895546579</v>
+      </c>
+      <c r="Z60" s="19"/>
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
       <c r="AC60" s="10"/>
@@ -27329,7 +27392,7 @@
       <c r="CL60" s="10"/>
       <c r="CM60" s="10"/>
     </row>
-    <row r="61" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -27422,7 +27485,7 @@
       <c r="CL61" s="10"/>
       <c r="CM61" s="10"/>
     </row>
-    <row r="62" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>1</v>
       </c>
@@ -27495,8 +27558,10 @@
       <c r="X62" s="19">
         <v>21.066608879316533</v>
       </c>
-      <c r="Y62" s="19"/>
-      <c r="Z62" s="10"/>
+      <c r="Y62" s="19">
+        <v>9.9495953143183584</v>
+      </c>
+      <c r="Z62" s="19"/>
       <c r="AA62" s="10"/>
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
@@ -27563,7 +27628,7 @@
       <c r="CL62" s="10"/>
       <c r="CM62" s="10"/>
     </row>
-    <row r="63" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -27589,13 +27654,14 @@
       <c r="W63" s="13"/>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -27688,7 +27754,7 @@
       <c r="CL65" s="10"/>
       <c r="CM65" s="10"/>
     </row>
-    <row r="66" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -27781,37 +27847,37 @@
       <c r="CL66" s="10"/>
       <c r="CM66" s="10"/>
     </row>
-    <row r="67" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="17" t="s">
         <v>8</v>
@@ -27839,8 +27905,9 @@
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
       <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>7</v>
       </c>
@@ -27913,12 +27980,15 @@
       <c r="X76" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y76" s="7"/>
+      <c r="Y76" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z76" s="7"/>
     </row>
-    <row r="77" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
     </row>
-    <row r="78" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -27991,8 +28061,10 @@
       <c r="X78" s="19">
         <v>12.872641581470106</v>
       </c>
-      <c r="Y78" s="19"/>
-      <c r="Z78" s="10"/>
+      <c r="Y78" s="19">
+        <v>7.5550462931090863</v>
+      </c>
+      <c r="Z78" s="19"/>
       <c r="AA78" s="10"/>
       <c r="AB78" s="10"/>
       <c r="AC78" s="10"/>
@@ -28059,7 +28131,7 @@
       <c r="CL78" s="10"/>
       <c r="CM78" s="10"/>
     </row>
-    <row r="79" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -28132,8 +28204,10 @@
       <c r="X79" s="19">
         <v>16.810494970778066</v>
       </c>
-      <c r="Y79" s="19"/>
-      <c r="Z79" s="10"/>
+      <c r="Y79" s="19">
+        <v>20.992228458510851</v>
+      </c>
+      <c r="Z79" s="19"/>
       <c r="AA79" s="10"/>
       <c r="AB79" s="10"/>
       <c r="AC79" s="10"/>
@@ -28200,7 +28274,7 @@
       <c r="CL79" s="10"/>
       <c r="CM79" s="10"/>
     </row>
-    <row r="80" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>4</v>
       </c>
@@ -28273,8 +28347,10 @@
       <c r="X80" s="19">
         <v>35.0091634951022</v>
       </c>
-      <c r="Y80" s="19"/>
-      <c r="Z80" s="10"/>
+      <c r="Y80" s="19">
+        <v>16.240143411910935</v>
+      </c>
+      <c r="Z80" s="19"/>
       <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
       <c r="AC80" s="10"/>
@@ -28341,7 +28417,7 @@
       <c r="CL80" s="10"/>
       <c r="CM80" s="10"/>
     </row>
-    <row r="81" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -28414,8 +28490,10 @@
       <c r="X81" s="19">
         <v>3.8861940286339518</v>
       </c>
-      <c r="Y81" s="19"/>
-      <c r="Z81" s="10"/>
+      <c r="Y81" s="19">
+        <v>5.4379356205153755</v>
+      </c>
+      <c r="Z81" s="19"/>
       <c r="AA81" s="10"/>
       <c r="AB81" s="10"/>
       <c r="AC81" s="10"/>
@@ -28482,7 +28560,7 @@
       <c r="CL81" s="10"/>
       <c r="CM81" s="10"/>
     </row>
-    <row r="82" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
@@ -28555,8 +28633,10 @@
       <c r="X82" s="19">
         <v>10.093155395286701</v>
       </c>
-      <c r="Y82" s="19"/>
-      <c r="Z82" s="10"/>
+      <c r="Y82" s="19">
+        <v>6.4199595002277334</v>
+      </c>
+      <c r="Z82" s="19"/>
       <c r="AA82" s="10"/>
       <c r="AB82" s="10"/>
       <c r="AC82" s="10"/>
@@ -28623,7 +28703,7 @@
       <c r="CL82" s="10"/>
       <c r="CM82" s="10"/>
     </row>
-    <row r="83" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -28716,7 +28796,7 @@
       <c r="CL83" s="10"/>
       <c r="CM83" s="10"/>
     </row>
-    <row r="84" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>1</v>
       </c>
@@ -28789,8 +28869,10 @@
       <c r="X84" s="19">
         <v>12.987166657486711</v>
       </c>
-      <c r="Y84" s="19"/>
-      <c r="Z84" s="10"/>
+      <c r="Y84" s="19">
+        <v>8.8023002506803181</v>
+      </c>
+      <c r="Z84" s="19"/>
       <c r="AA84" s="10"/>
       <c r="AB84" s="10"/>
       <c r="AC84" s="10"/>
@@ -28857,7 +28939,7 @@
       <c r="CL84" s="10"/>
       <c r="CM84" s="10"/>
     </row>
-    <row r="85" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -28883,13 +28965,14 @@
       <c r="W85" s="13"/>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
+      <c r="Z85" s="13"/>
     </row>
-    <row r="86" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -28982,7 +29065,7 @@
       <c r="CL87" s="10"/>
       <c r="CM87" s="10"/>
     </row>
-    <row r="88" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -29076,32 +29159,32 @@
       <c r="CM88" s="10"/>
       <c r="CN88" s="10"/>
     </row>
-    <row r="89" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="6" t="s">
         <v>8</v>
@@ -29129,8 +29212,9 @@
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
+      <c r="Z96" s="6"/>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>7</v>
       </c>
@@ -29206,11 +29290,14 @@
       <c r="Y97" s="16">
         <v>2023</v>
       </c>
+      <c r="Z97" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="98" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
     </row>
-    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -29286,7 +29373,9 @@
       <c r="Y99" s="19">
         <v>134.92401495914311</v>
       </c>
-      <c r="Z99" s="10"/>
+      <c r="Z99" s="19">
+        <v>136.78122599484476</v>
+      </c>
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
       <c r="AC99" s="10"/>
@@ -29358,7 +29447,7 @@
       <c r="CQ99" s="10"/>
       <c r="CR99" s="10"/>
     </row>
-    <row r="100" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
@@ -29434,7 +29523,9 @@
       <c r="Y100" s="19">
         <v>111.06499773235856</v>
       </c>
-      <c r="Z100" s="10"/>
+      <c r="Z100" s="19">
+        <v>113.62121374470195</v>
+      </c>
       <c r="AA100" s="10"/>
       <c r="AB100" s="10"/>
       <c r="AC100" s="10"/>
@@ -29506,7 +29597,7 @@
       <c r="CQ100" s="10"/>
       <c r="CR100" s="10"/>
     </row>
-    <row r="101" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>4</v>
       </c>
@@ -29582,7 +29673,9 @@
       <c r="Y101" s="19">
         <v>130.25980800791675</v>
       </c>
-      <c r="Z101" s="10"/>
+      <c r="Z101" s="19">
+        <v>128.71090475643342</v>
+      </c>
       <c r="AA101" s="10"/>
       <c r="AB101" s="10"/>
       <c r="AC101" s="10"/>
@@ -29654,7 +29747,7 @@
       <c r="CQ101" s="10"/>
       <c r="CR101" s="10"/>
     </row>
-    <row r="102" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -29730,7 +29823,9 @@
       <c r="Y102" s="19">
         <v>117.9615163585789</v>
       </c>
-      <c r="Z102" s="10"/>
+      <c r="Z102" s="19">
+        <v>119.82224770321153</v>
+      </c>
       <c r="AA102" s="10"/>
       <c r="AB102" s="10"/>
       <c r="AC102" s="10"/>
@@ -29802,7 +29897,7 @@
       <c r="CQ102" s="10"/>
       <c r="CR102" s="10"/>
     </row>
-    <row r="103" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -29878,7 +29973,9 @@
       <c r="Y103" s="19">
         <v>102.67903570000045</v>
       </c>
-      <c r="Z103" s="10"/>
+      <c r="Z103" s="19">
+        <v>103.55508907879974</v>
+      </c>
       <c r="AA103" s="10"/>
       <c r="AB103" s="10"/>
       <c r="AC103" s="10"/>
@@ -29950,7 +30047,7 @@
       <c r="CQ103" s="10"/>
       <c r="CR103" s="10"/>
     </row>
-    <row r="104" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -30048,7 +30145,7 @@
       <c r="CQ104" s="10"/>
       <c r="CR104" s="10"/>
     </row>
-    <row r="105" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>1</v>
       </c>
@@ -30124,7 +30221,9 @@
       <c r="Y105" s="19">
         <v>127.33137238092702</v>
       </c>
-      <c r="Z105" s="10"/>
+      <c r="Z105" s="19">
+        <v>128.67405221988551</v>
+      </c>
       <c r="AA105" s="10"/>
       <c r="AB105" s="10"/>
       <c r="AC105" s="10"/>
@@ -30196,7 +30295,7 @@
       <c r="CQ105" s="10"/>
       <c r="CR105" s="10"/>
     </row>
-    <row r="106" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -30222,43 +30321,44 @@
       <c r="W106" s="13"/>
       <c r="X106" s="13"/>
       <c r="Y106" s="13"/>
+      <c r="Z106" s="13"/>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="6" t="s">
         <v>8</v>
@@ -30286,8 +30386,9 @@
       <c r="W118" s="6"/>
       <c r="X118" s="6"/>
       <c r="Y118" s="6"/>
+      <c r="Z118" s="6"/>
     </row>
-    <row r="119" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>7</v>
       </c>
@@ -30363,11 +30464,14 @@
       <c r="Y119" s="16">
         <v>2023</v>
       </c>
+      <c r="Z119" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="120" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
     </row>
-    <row r="121" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -30443,7 +30547,9 @@
       <c r="Y121" s="19">
         <v>54.30190542485186</v>
       </c>
-      <c r="Z121" s="10"/>
+      <c r="Z121" s="19">
+        <v>53.850465437110515</v>
+      </c>
       <c r="AA121" s="10"/>
       <c r="AB121" s="10"/>
       <c r="AC121" s="10"/>
@@ -30515,7 +30621,7 @@
       <c r="CQ121" s="10"/>
       <c r="CR121" s="10"/>
     </row>
-    <row r="122" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
@@ -30591,7 +30697,9 @@
       <c r="Y122" s="19">
         <v>4.1438611041687929</v>
       </c>
-      <c r="Z122" s="10"/>
+      <c r="Z122" s="19">
+        <v>4.6649956465858642</v>
+      </c>
       <c r="AA122" s="10"/>
       <c r="AB122" s="10"/>
       <c r="AC122" s="10"/>
@@ -30663,7 +30771,7 @@
       <c r="CQ122" s="10"/>
       <c r="CR122" s="10"/>
     </row>
-    <row r="123" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>4</v>
       </c>
@@ -30739,7 +30847,9 @@
       <c r="Y123" s="19">
         <v>14.164052042134395</v>
       </c>
-      <c r="Z123" s="10"/>
+      <c r="Z123" s="19">
+        <v>14.796361219702414</v>
+      </c>
       <c r="AA123" s="10"/>
       <c r="AB123" s="10"/>
       <c r="AC123" s="10"/>
@@ -30811,7 +30921,7 @@
       <c r="CQ123" s="10"/>
       <c r="CR123" s="10"/>
     </row>
-    <row r="124" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
@@ -30887,7 +30997,9 @@
       <c r="Y124" s="19">
         <v>23.707608658326578</v>
       </c>
-      <c r="Z124" s="10"/>
+      <c r="Z124" s="19">
+        <v>23.093413091324503</v>
+      </c>
       <c r="AA124" s="10"/>
       <c r="AB124" s="10"/>
       <c r="AC124" s="10"/>
@@ -30959,7 +31071,7 @@
       <c r="CQ124" s="10"/>
       <c r="CR124" s="10"/>
     </row>
-    <row r="125" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
@@ -31035,7 +31147,9 @@
       <c r="Y125" s="19">
         <v>3.6825727705183735</v>
       </c>
-      <c r="Z125" s="10"/>
+      <c r="Z125" s="19">
+        <v>3.5947646052766964</v>
+      </c>
       <c r="AA125" s="10"/>
       <c r="AB125" s="10"/>
       <c r="AC125" s="10"/>
@@ -31107,7 +31221,7 @@
       <c r="CQ125" s="10"/>
       <c r="CR125" s="10"/>
     </row>
-    <row r="126" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -31205,7 +31319,7 @@
       <c r="CQ126" s="10"/>
       <c r="CR126" s="10"/>
     </row>
-    <row r="127" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>1</v>
       </c>
@@ -31281,7 +31395,9 @@
       <c r="Y127" s="19">
         <v>100</v>
       </c>
-      <c r="Z127" s="10"/>
+      <c r="Z127" s="19">
+        <v>100</v>
+      </c>
       <c r="AA127" s="10"/>
       <c r="AB127" s="10"/>
       <c r="AC127" s="10"/>
@@ -31353,7 +31469,7 @@
       <c r="CQ127" s="10"/>
       <c r="CR127" s="10"/>
     </row>
-    <row r="128" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -31379,13 +31495,14 @@
       <c r="W128" s="13"/>
       <c r="X128" s="13"/>
       <c r="Y128" s="13"/>
+      <c r="Z128" s="13"/>
     </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -31483,7 +31600,7 @@
       <c r="CQ130" s="10"/>
       <c r="CR130" s="10"/>
     </row>
-    <row r="131" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -31581,37 +31698,37 @@
       <c r="CQ131" s="10"/>
       <c r="CR131" s="10"/>
     </row>
-    <row r="132" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="6" t="s">
         <v>8</v>
@@ -31639,8 +31756,9 @@
       <c r="W140" s="6"/>
       <c r="X140" s="6"/>
       <c r="Y140" s="6"/>
+      <c r="Z140" s="6"/>
     </row>
-    <row r="141" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>7</v>
       </c>
@@ -31716,11 +31834,14 @@
       <c r="Y141" s="16">
         <v>2023</v>
       </c>
+      <c r="Z141" s="16">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="142" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
     </row>
-    <row r="143" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>6</v>
       </c>
@@ -31796,7 +31917,9 @@
       <c r="Y143" s="19">
         <v>51.246148750757612</v>
       </c>
-      <c r="Z143" s="10"/>
+      <c r="Z143" s="19">
+        <v>50.658689095103263</v>
+      </c>
       <c r="AA143" s="10"/>
       <c r="AB143" s="10"/>
       <c r="AC143" s="10"/>
@@ -31868,7 +31991,7 @@
       <c r="CQ143" s="10"/>
       <c r="CR143" s="10"/>
     </row>
-    <row r="144" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
@@ -31944,7 +32067,9 @@
       <c r="Y144" s="19">
         <v>4.7507633558977522</v>
       </c>
-      <c r="Z144" s="10"/>
+      <c r="Z144" s="19">
+        <v>5.2830265902903868</v>
+      </c>
       <c r="AA144" s="10"/>
       <c r="AB144" s="10"/>
       <c r="AC144" s="10"/>
@@ -32016,7 +32141,7 @@
       <c r="CQ144" s="10"/>
       <c r="CR144" s="10"/>
     </row>
-    <row r="145" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>4</v>
       </c>
@@ -32092,7 +32217,9 @@
       <c r="Y145" s="19">
         <v>13.845622932978927</v>
       </c>
-      <c r="Z145" s="10"/>
+      <c r="Z145" s="19">
+        <v>14.792124722074984</v>
+      </c>
       <c r="AA145" s="10"/>
       <c r="AB145" s="10"/>
       <c r="AC145" s="10"/>
@@ -32164,7 +32291,7 @@
       <c r="CQ145" s="10"/>
       <c r="CR145" s="10"/>
     </row>
-    <row r="146" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
@@ -32240,7 +32367,9 @@
       <c r="Y146" s="19">
         <v>25.590738738542257</v>
       </c>
-      <c r="Z146" s="10"/>
+      <c r="Z146" s="19">
+        <v>24.799426642443397</v>
+      </c>
       <c r="AA146" s="10"/>
       <c r="AB146" s="10"/>
       <c r="AC146" s="10"/>
@@ -32312,7 +32441,7 @@
       <c r="CQ146" s="10"/>
       <c r="CR146" s="10"/>
     </row>
-    <row r="147" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>2</v>
       </c>
@@ -32388,7 +32517,9 @@
       <c r="Y147" s="19">
         <v>4.5667262218234388</v>
       </c>
-      <c r="Z147" s="10"/>
+      <c r="Z147" s="19">
+        <v>4.4667329500879704</v>
+      </c>
       <c r="AA147" s="10"/>
       <c r="AB147" s="10"/>
       <c r="AC147" s="10"/>
@@ -32460,7 +32591,7 @@
       <c r="CQ147" s="10"/>
       <c r="CR147" s="10"/>
     </row>
-    <row r="148" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -32558,7 +32689,7 @@
       <c r="CQ148" s="10"/>
       <c r="CR148" s="10"/>
     </row>
-    <row r="149" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>1</v>
       </c>
@@ -32634,7 +32765,9 @@
       <c r="Y149" s="19">
         <v>100</v>
       </c>
-      <c r="Z149" s="10"/>
+      <c r="Z149" s="19">
+        <v>100</v>
+      </c>
       <c r="AA149" s="10"/>
       <c r="AB149" s="10"/>
       <c r="AC149" s="10"/>
@@ -32706,7 +32839,7 @@
       <c r="CQ149" s="10"/>
       <c r="CR149" s="10"/>
     </row>
-    <row r="150" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -32732,13 +32865,14 @@
       <c r="W150" s="13"/>
       <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
+      <c r="Z150" s="13"/>
     </row>
-    <row r="151" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -32830,7 +32964,7 @@
       <c r="CL152" s="10"/>
       <c r="CM152" s="10"/>
     </row>
-    <row r="153" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -32928,12 +33062,12 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="22" max="24" man="1"/>
-    <brk id="44" max="24" man="1"/>
-    <brk id="66" max="24" man="1"/>
-    <brk id="88" max="24" man="1"/>
-    <brk id="109" max="24" man="1"/>
-    <brk id="131" max="24" man="1"/>
+    <brk id="22" max="25" man="1"/>
+    <brk id="44" max="25" man="1"/>
+    <brk id="66" max="25" man="1"/>
+    <brk id="88" max="25" man="1"/>
+    <brk id="109" max="25" man="1"/>
+    <brk id="131" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1FEFAD-EDDC-4940-9F8A-3F9B414C8E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267C700A-EC0D-48D5-BDFC-219EB7D2DF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23572,9 +23572,9 @@
   <dimension ref="A1:CR153"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23879,10 +23879,10 @@
         <v>437520.46481490298</v>
       </c>
       <c r="Y12" s="9">
-        <v>530746.20742036367</v>
+        <v>530701.62661504303</v>
       </c>
       <c r="Z12" s="9">
-        <v>578701.92499655567</v>
+        <v>577446.77103678649</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -24179,10 +24179,10 @@
         <v>92304.400537834532</v>
       </c>
       <c r="Y14" s="9">
-        <v>138439.28393030225</v>
+        <v>138870.13134492369</v>
       </c>
       <c r="Z14" s="9">
-        <v>159008.51833464904</v>
+        <v>159500.48500677687</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -24329,10 +24329,10 @@
         <v>211049.61194969338</v>
       </c>
       <c r="Y15" s="9">
-        <v>231717.89799947586</v>
+        <v>231644.56470357621</v>
       </c>
       <c r="Z15" s="9">
-        <v>248172.46243298653</v>
+        <v>249780.20391925785</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -24482,7 +24482,7 @@
         <v>35993.424470288002</v>
       </c>
       <c r="Z16" s="9">
-        <v>38630.997524294216</v>
+        <v>38671.480368313896</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -24727,10 +24727,10 @@
         <v>807323.23658586794</v>
       </c>
       <c r="Y18" s="12">
-        <v>977398.86522925191</v>
+        <v>977711.79854265321</v>
       </c>
       <c r="Z18" s="12">
-        <v>1074646.0969263024</v>
+        <v>1075531.1339689521</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -25380,10 +25380,10 @@
         <v>348504.95269622037</v>
       </c>
       <c r="Y34" s="9">
-        <v>393366.74615047674</v>
+        <v>393331.53497880761</v>
       </c>
       <c r="Z34" s="9">
-        <v>423085.78592384217</v>
+        <v>422082.29376348818</v>
       </c>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
@@ -25680,10 +25680,10 @@
         <v>78720.104893502605</v>
       </c>
       <c r="Y36" s="9">
-        <v>106279.35511918487</v>
+        <v>106580.72350888509</v>
       </c>
       <c r="Z36" s="9">
-        <v>123539.2748077946</v>
+        <v>123908.32664744252</v>
       </c>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
@@ -25830,10 +25830,10 @@
         <v>189086.8808296058</v>
       </c>
       <c r="Y37" s="9">
-        <v>196435.16390133611</v>
+        <v>196372.84516749156</v>
       </c>
       <c r="Z37" s="9">
-        <v>207117.18165034463</v>
+        <v>208435.21785500966</v>
       </c>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
@@ -25983,7 +25983,7 @@
         <v>35054.307069508097</v>
       </c>
       <c r="Z38" s="9">
-        <v>37304.779386455986</v>
+        <v>37343.319950227407</v>
       </c>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
@@ -26228,10 +26228,10 @@
         <v>679371.45054417138</v>
       </c>
       <c r="Y40" s="12">
-        <v>767602.55304972793</v>
+        <v>767806.39153391449</v>
       </c>
       <c r="Z40" s="12">
-        <v>835169.23450105265</v>
+        <v>835891.37094878312</v>
       </c>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
@@ -26748,10 +26748,10 @@
         <v>28.910849800127323</v>
       </c>
       <c r="X56" s="19">
-        <v>21.307744460570717</v>
+        <v>21.297555038839434</v>
       </c>
       <c r="Y56" s="19">
-        <v>9.0355271325019544</v>
+        <v>8.8081780943270331</v>
       </c>
       <c r="Z56" s="19"/>
       <c r="AA56" s="10"/>
@@ -27034,10 +27034,10 @@
         <v>229.39648145963656</v>
       </c>
       <c r="X58" s="19">
-        <v>49.981239381493566</v>
+        <v>50.448007392672906</v>
       </c>
       <c r="Y58" s="19">
-        <v>14.857946256571523</v>
+        <v>14.855860984686316</v>
       </c>
       <c r="Z58" s="19"/>
       <c r="AA58" s="10"/>
@@ -27177,10 +27177,10 @@
         <v>18.042865605821561</v>
       </c>
       <c r="X59" s="19">
-        <v>9.7930936043175763</v>
+        <v>9.7583466577479072</v>
       </c>
       <c r="Y59" s="19">
-        <v>7.1011193246487636</v>
+        <v>7.8290804012124795</v>
       </c>
       <c r="Z59" s="19"/>
       <c r="AA59" s="10"/>
@@ -27323,7 +27323,7 @@
         <v>10.347182332767972</v>
       </c>
       <c r="Y60" s="19">
-        <v>7.3279302895546579</v>
+        <v>7.4404031776320352</v>
       </c>
       <c r="Z60" s="19"/>
       <c r="AA60" s="10"/>
@@ -27556,10 +27556,10 @@
         <v>33.396972676443738</v>
       </c>
       <c r="X62" s="19">
-        <v>21.066608879316533</v>
+        <v>21.105370715867224</v>
       </c>
       <c r="Y62" s="19">
-        <v>9.9495953143183584</v>
+        <v>10.004925334040692</v>
       </c>
       <c r="Z62" s="19"/>
       <c r="AA62" s="10"/>
@@ -28059,10 +28059,10 @@
         <v>21.795635239282035</v>
       </c>
       <c r="X78" s="19">
-        <v>12.872641581470106</v>
+        <v>12.862538088995535</v>
       </c>
       <c r="Y78" s="19">
-        <v>7.5550462931090863</v>
+        <v>7.3095483651545123</v>
       </c>
       <c r="Z78" s="19"/>
       <c r="AA78" s="10"/>
@@ -28345,10 +28345,10 @@
         <v>177.84503974732985</v>
       </c>
       <c r="X80" s="19">
-        <v>35.0091634951022</v>
+        <v>35.391998845878106</v>
       </c>
       <c r="Y80" s="19">
-        <v>16.240143411910935</v>
+        <v>16.257727071174301</v>
       </c>
       <c r="Z80" s="19"/>
       <c r="AA80" s="10"/>
@@ -28488,10 +28488,10 @@
         <v>7.2039460809015594</v>
       </c>
       <c r="X81" s="19">
-        <v>3.8861940286339518</v>
+        <v>3.8532363038192159</v>
       </c>
       <c r="Y81" s="19">
-        <v>5.4379356205153755</v>
+        <v>6.1425869127830595</v>
       </c>
       <c r="Z81" s="19"/>
       <c r="AA81" s="10"/>
@@ -28634,7 +28634,7 @@
         <v>10.093155395286701</v>
       </c>
       <c r="Y82" s="19">
-        <v>6.4199595002277334</v>
+        <v>6.5299048022272785</v>
       </c>
       <c r="Z82" s="19"/>
       <c r="AA82" s="10"/>
@@ -28867,10 +28867,10 @@
         <v>24.016593719889116</v>
       </c>
       <c r="X84" s="19">
-        <v>12.987166657486711</v>
+        <v>13.017170638964501</v>
       </c>
       <c r="Y84" s="19">
-        <v>8.8023002506803181</v>
+        <v>8.8674671330684305</v>
       </c>
       <c r="Z84" s="19"/>
       <c r="AA84" s="10"/>
@@ -29371,10 +29371,10 @@
         <v>125.54210820535292</v>
       </c>
       <c r="Y99" s="19">
-        <v>134.92401495914311</v>
+        <v>134.9247592475993</v>
       </c>
       <c r="Z99" s="19">
-        <v>136.78122599484476</v>
+        <v>136.80904874923658</v>
       </c>
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
@@ -29671,10 +29671,10 @@
         <v>117.25645013139858</v>
       </c>
       <c r="Y101" s="19">
-        <v>130.25980800791675</v>
+        <v>130.29572963383646</v>
       </c>
       <c r="Z101" s="19">
-        <v>128.71090475643342</v>
+        <v>128.72458964005304</v>
       </c>
       <c r="AA101" s="10"/>
       <c r="AB101" s="10"/>
@@ -29821,10 +29821,10 @@
         <v>111.61515332196903</v>
       </c>
       <c r="Y102" s="19">
-        <v>117.9615163585789</v>
+        <v>117.96160742387802</v>
       </c>
       <c r="Z102" s="19">
-        <v>119.82224770321153</v>
+        <v>119.83589265275138</v>
       </c>
       <c r="AA102" s="10"/>
       <c r="AB102" s="10"/>
@@ -29974,7 +29974,7 @@
         <v>102.67903570000045</v>
       </c>
       <c r="Z103" s="19">
-        <v>103.55508907879974</v>
+        <v>103.5566211570281</v>
       </c>
       <c r="AA103" s="10"/>
       <c r="AB103" s="10"/>
@@ -30219,10 +30219,10 @@
         <v>118.83384795448913</v>
       </c>
       <c r="Y105" s="19">
-        <v>127.33137238092702</v>
+        <v>127.33832504173247</v>
       </c>
       <c r="Z105" s="19">
-        <v>128.67405221988551</v>
+        <v>128.6687686162096</v>
       </c>
       <c r="AA105" s="10"/>
       <c r="AB105" s="10"/>
@@ -30545,10 +30545,10 @@
         <v>54.193964076291977</v>
       </c>
       <c r="Y121" s="19">
-        <v>54.30190542485186</v>
+        <v>54.279965466929049</v>
       </c>
       <c r="Z121" s="19">
-        <v>53.850465437110515</v>
+        <v>53.6894519181307</v>
       </c>
       <c r="AA121" s="10"/>
       <c r="AB121" s="10"/>
@@ -30695,10 +30695,10 @@
         <v>4.1904423031622384</v>
       </c>
       <c r="Y122" s="19">
-        <v>4.1438611041687929</v>
+        <v>4.1425347908446266</v>
       </c>
       <c r="Z122" s="19">
-        <v>4.6649956465858642</v>
+        <v>4.661156897691825</v>
       </c>
       <c r="AA122" s="10"/>
       <c r="AB122" s="10"/>
@@ -30845,10 +30845,10 @@
         <v>11.433388307784316</v>
       </c>
       <c r="Y123" s="19">
-        <v>14.164052042134395</v>
+        <v>14.203585509750335</v>
       </c>
       <c r="Z123" s="19">
-        <v>14.796361219702414</v>
+        <v>14.829927276785021</v>
       </c>
       <c r="AA123" s="10"/>
       <c r="AB123" s="10"/>
@@ -30995,10 +30995,10 @@
         <v>26.141897369659802</v>
       </c>
       <c r="Y124" s="19">
-        <v>23.707608658326578</v>
+        <v>23.692520132093975</v>
       </c>
       <c r="Z124" s="19">
-        <v>23.093413091324503</v>
+        <v>23.223893389074906</v>
       </c>
       <c r="AA124" s="10"/>
       <c r="AB124" s="10"/>
@@ -31145,10 +31145,10 @@
         <v>4.040307943101654</v>
       </c>
       <c r="Y125" s="19">
-        <v>3.6825727705183735</v>
+        <v>3.6813941003820023</v>
       </c>
       <c r="Z125" s="19">
-        <v>3.5947646052766964</v>
+        <v>3.5955705183175333</v>
       </c>
       <c r="AA125" s="10"/>
       <c r="AB125" s="10"/>
@@ -31915,10 +31915,10 @@
         <v>51.29814513357465</v>
       </c>
       <c r="Y143" s="19">
-        <v>51.246148750757612</v>
+        <v>51.227957896132459</v>
       </c>
       <c r="Z143" s="19">
-        <v>50.658689095103263</v>
+        <v>50.494873907407531</v>
       </c>
       <c r="AA143" s="10"/>
       <c r="AB143" s="10"/>
@@ -32065,10 +32065,10 @@
         <v>4.5952659577153812</v>
       </c>
       <c r="Y144" s="19">
-        <v>4.7507633558977522</v>
+        <v>4.749502115548788</v>
       </c>
       <c r="Z144" s="19">
-        <v>5.2830265902903868</v>
+        <v>5.2784625210969844</v>
       </c>
       <c r="AA144" s="10"/>
       <c r="AB144" s="10"/>
@@ -32215,10 +32215,10 @@
         <v>11.58719649323627</v>
       </c>
       <c r="Y145" s="19">
-        <v>13.845622932978927</v>
+        <v>13.88119774517107</v>
       </c>
       <c r="Z145" s="19">
-        <v>14.792124722074984</v>
+        <v>14.823496324265159</v>
       </c>
       <c r="AA145" s="10"/>
       <c r="AB145" s="10"/>
@@ -32365,10 +32365,10 @@
         <v>27.832620973128712</v>
       </c>
       <c r="Y146" s="19">
-        <v>25.590738738542257</v>
+        <v>25.57582840319683</v>
       </c>
       <c r="Z146" s="19">
-        <v>24.799426642443397</v>
+        <v>24.935682446203998</v>
       </c>
       <c r="AA146" s="10"/>
       <c r="AB146" s="10"/>
@@ -32515,10 +32515,10 @@
         <v>4.6867714423449947</v>
       </c>
       <c r="Y147" s="19">
-        <v>4.5667262218234388</v>
+        <v>4.565513839950853</v>
       </c>
       <c r="Z147" s="19">
-        <v>4.4667329500879704</v>
+        <v>4.467484801026318</v>
       </c>
       <c r="AA147" s="10"/>
       <c r="AB147" s="10"/>

--- a/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-14TAS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267C700A-EC0D-48D5-BDFC-219EB7D2DF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDF5818-7369-44A8-BD5A-9F647362E07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAS" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$Z$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TAS!$A$1:$AA$153</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23572,16 +23575,16 @@
   <dimension ref="A1:CR153"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="80" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="26" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23596,7 +23599,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23606,7 +23609,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -23633,6 +23636,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23663,6 +23667,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:96" ht="15" x14ac:dyDescent="0.2">
       <c r="A8"/>
@@ -23691,6 +23696,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23721,6 +23727,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -23800,6 +23807,9 @@
       </c>
       <c r="Z10" s="7">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23884,7 +23894,9 @@
       <c r="Z12" s="9">
         <v>577446.77103678649</v>
       </c>
-      <c r="AA12" s="10"/>
+      <c r="AA12" s="9">
+        <v>614189.37865707395</v>
+      </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
@@ -24034,7 +24046,9 @@
       <c r="Z13" s="9">
         <v>50132.193637816912</v>
       </c>
-      <c r="AA13" s="10"/>
+      <c r="AA13" s="9">
+        <v>56415.241822850941</v>
+      </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -24184,7 +24198,9 @@
       <c r="Z14" s="9">
         <v>159500.48500677687</v>
       </c>
-      <c r="AA14" s="10"/>
+      <c r="AA14" s="9">
+        <v>167239.83067685564</v>
+      </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
@@ -24334,7 +24350,9 @@
       <c r="Z15" s="9">
         <v>249780.20391925785</v>
       </c>
-      <c r="AA15" s="10"/>
+      <c r="AA15" s="9">
+        <v>275365.07308501564</v>
+      </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -24484,7 +24502,9 @@
       <c r="Z16" s="9">
         <v>38671.480368313896</v>
       </c>
-      <c r="AA16" s="10"/>
+      <c r="AA16" s="9">
+        <v>45528.77039692059</v>
+      </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
@@ -24732,7 +24752,9 @@
       <c r="Z18" s="12">
         <v>1075531.1339689521</v>
       </c>
-      <c r="AA18" s="10"/>
+      <c r="AA18" s="12">
+        <v>1158738.2946387168</v>
+      </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
@@ -24830,6 +24852,7 @@
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
     </row>
     <row r="20" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
@@ -25044,7 +25067,7 @@
     </row>
     <row r="25" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:96" ht="15" x14ac:dyDescent="0.2">
@@ -25074,6 +25097,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -25104,10 +25128,11 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -25134,6 +25159,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -25164,6 +25190,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
     </row>
     <row r="30" spans="1:96" ht="15" x14ac:dyDescent="0.2">
       <c r="A30"/>
@@ -25192,6 +25219,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -25222,6 +25250,7 @@
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
@@ -25301,6 +25330,9 @@
       </c>
       <c r="Z32" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="33" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -25385,7 +25417,9 @@
       <c r="Z34" s="9">
         <v>422082.29376348818</v>
       </c>
-      <c r="AA34" s="10"/>
+      <c r="AA34" s="9">
+        <v>444631.92629562179</v>
+      </c>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
@@ -25535,7 +25569,9 @@
       <c r="Z35" s="9">
         <v>44122.212732615284</v>
       </c>
-      <c r="AA35" s="10"/>
+      <c r="AA35" s="9">
+        <v>48220.24641187246</v>
+      </c>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
@@ -25685,7 +25721,9 @@
       <c r="Z36" s="9">
         <v>123908.32664744252</v>
       </c>
-      <c r="AA36" s="10"/>
+      <c r="AA36" s="9">
+        <v>130445.83522486252</v>
+      </c>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
@@ -25835,7 +25873,9 @@
       <c r="Z37" s="9">
         <v>208435.21785500966</v>
       </c>
-      <c r="AA37" s="10"/>
+      <c r="AA37" s="9">
+        <v>225794.04193653073</v>
+      </c>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
@@ -25985,7 +26025,9 @@
       <c r="Z38" s="9">
         <v>37343.319950227407</v>
       </c>
-      <c r="AA38" s="10"/>
+      <c r="AA38" s="9">
+        <v>43947.135001764364</v>
+      </c>
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
@@ -26233,7 +26275,9 @@
       <c r="Z40" s="12">
         <v>835891.37094878312</v>
       </c>
-      <c r="AA40" s="10"/>
+      <c r="AA40" s="12">
+        <v>893039.18487065192</v>
+      </c>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
@@ -26331,6 +26375,7 @@
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
     </row>
     <row r="42" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -26545,7 +26590,7 @@
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:91" x14ac:dyDescent="0.2">
@@ -26555,7 +26600,7 @@
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:91" x14ac:dyDescent="0.2">
@@ -26595,6 +26640,7 @@
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
       <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
     </row>
     <row r="54" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
@@ -26672,7 +26718,10 @@
       <c r="Y54" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="Z54" s="18"/>
+      <c r="Z54" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA54" s="18"/>
     </row>
     <row r="55" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -26753,8 +26802,10 @@
       <c r="Y56" s="19">
         <v>8.8081780943270331</v>
       </c>
-      <c r="Z56" s="19"/>
-      <c r="AA56" s="10"/>
+      <c r="Z56" s="19">
+        <v>6.3629427790058202</v>
+      </c>
+      <c r="AA56" s="19"/>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
@@ -26896,8 +26947,10 @@
       <c r="Y57" s="19">
         <v>23.776924610038748</v>
       </c>
-      <c r="Z57" s="19"/>
-      <c r="AA57" s="10"/>
+      <c r="Z57" s="19">
+        <v>12.532960816409286</v>
+      </c>
+      <c r="AA57" s="19"/>
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
@@ -27039,8 +27092,10 @@
       <c r="Y58" s="19">
         <v>14.855860984686316</v>
       </c>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="10"/>
+      <c r="Z58" s="19">
+        <v>4.8522395839422927</v>
+      </c>
+      <c r="AA58" s="19"/>
       <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
@@ -27182,8 +27237,10 @@
       <c r="Y59" s="19">
         <v>7.8290804012124795</v>
       </c>
-      <c r="Z59" s="19"/>
-      <c r="AA59" s="10"/>
+      <c r="Z59" s="19">
+        <v>10.242953110098412</v>
+      </c>
+      <c r="AA59" s="19"/>
       <c r="AB59" s="10"/>
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
@@ -27325,8 +27382,10 @@
       <c r="Y60" s="19">
         <v>7.4404031776320352</v>
       </c>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="10"/>
+      <c r="Z60" s="19">
+        <v>17.732163246135585</v>
+      </c>
+      <c r="AA60" s="19"/>
       <c r="AB60" s="10"/>
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
@@ -27561,8 +27620,10 @@
       <c r="Y62" s="19">
         <v>10.004925334040692</v>
       </c>
-      <c r="Z62" s="19"/>
-      <c r="AA62" s="10"/>
+      <c r="Z62" s="19">
+        <v>7.7363786172057729</v>
+      </c>
+      <c r="AA62" s="19"/>
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
@@ -27655,6 +27716,7 @@
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
       <c r="Z63" s="13"/>
+      <c r="AA63" s="13"/>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
@@ -27859,7 +27921,7 @@
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:91" x14ac:dyDescent="0.2">
@@ -27869,7 +27931,7 @@
     </row>
     <row r="72" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
@@ -27906,6 +27968,7 @@
       <c r="X75" s="17"/>
       <c r="Y75" s="17"/>
       <c r="Z75" s="17"/>
+      <c r="AA75" s="17"/>
     </row>
     <row r="76" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
@@ -27983,7 +28046,10 @@
       <c r="Y76" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Z76" s="7"/>
+      <c r="Z76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA76" s="7"/>
     </row>
     <row r="77" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
@@ -28064,8 +28130,10 @@
       <c r="Y78" s="19">
         <v>7.3095483651545123</v>
       </c>
-      <c r="Z78" s="19"/>
-      <c r="AA78" s="10"/>
+      <c r="Z78" s="19">
+        <v>5.3424729881631094</v>
+      </c>
+      <c r="AA78" s="19"/>
       <c r="AB78" s="10"/>
       <c r="AC78" s="10"/>
       <c r="AD78" s="10"/>
@@ -28207,8 +28275,10 @@
       <c r="Y79" s="19">
         <v>20.992228458510851</v>
       </c>
-      <c r="Z79" s="19"/>
-      <c r="AA79" s="10"/>
+      <c r="Z79" s="19">
+        <v>9.2879151462589675</v>
+      </c>
+      <c r="AA79" s="19"/>
       <c r="AB79" s="10"/>
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
@@ -28350,8 +28420,10 @@
       <c r="Y80" s="19">
         <v>16.257727071174301</v>
       </c>
-      <c r="Z80" s="19"/>
-      <c r="AA80" s="10"/>
+      <c r="Z80" s="19">
+        <v>5.2760849527257534</v>
+      </c>
+      <c r="AA80" s="19"/>
       <c r="AB80" s="10"/>
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
@@ -28493,8 +28565,10 @@
       <c r="Y81" s="19">
         <v>6.1425869127830595</v>
       </c>
-      <c r="Z81" s="19"/>
-      <c r="AA81" s="10"/>
+      <c r="Z81" s="19">
+        <v>8.3281627069356858</v>
+      </c>
+      <c r="AA81" s="19"/>
       <c r="AB81" s="10"/>
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
@@ -28636,8 +28710,10 @@
       <c r="Y82" s="19">
         <v>6.5299048022272785</v>
       </c>
-      <c r="Z82" s="19"/>
-      <c r="AA82" s="10"/>
+      <c r="Z82" s="19">
+        <v>17.684059854182138</v>
+      </c>
+      <c r="AA82" s="19"/>
       <c r="AB82" s="10"/>
       <c r="AC82" s="10"/>
       <c r="AD82" s="10"/>
@@ -28872,8 +28948,10 @@
       <c r="Y84" s="19">
         <v>8.8674671330684305</v>
       </c>
-      <c r="Z84" s="19"/>
-      <c r="AA84" s="10"/>
+      <c r="Z84" s="19">
+        <v>6.8367512703239015</v>
+      </c>
+      <c r="AA84" s="19"/>
       <c r="AB84" s="10"/>
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
@@ -28966,6 +29044,7 @@
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
+      <c r="AA85" s="13"/>
     </row>
     <row r="86" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
@@ -29166,7 +29245,7 @@
     </row>
     <row r="90" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:92" x14ac:dyDescent="0.2">
@@ -29176,7 +29255,7 @@
     </row>
     <row r="93" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:92" x14ac:dyDescent="0.2">
@@ -29213,6 +29292,7 @@
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
+      <c r="AA96" s="6"/>
     </row>
     <row r="97" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
@@ -29292,6 +29372,9 @@
       </c>
       <c r="Z97" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA97" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="98" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29376,7 +29459,9 @@
       <c r="Z99" s="19">
         <v>136.80904874923658</v>
       </c>
-      <c r="AA99" s="10"/>
+      <c r="AA99" s="19">
+        <v>138.13434041367483</v>
+      </c>
       <c r="AB99" s="10"/>
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
@@ -29526,7 +29611,9 @@
       <c r="Z100" s="19">
         <v>113.62121374470195</v>
       </c>
-      <c r="AA100" s="10"/>
+      <c r="AA100" s="19">
+        <v>116.99492644849026</v>
+      </c>
       <c r="AB100" s="10"/>
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
@@ -29676,7 +29763,9 @@
       <c r="Z101" s="19">
         <v>128.72458964005304</v>
       </c>
-      <c r="AA101" s="10"/>
+      <c r="AA101" s="19">
+        <v>128.20633973370451</v>
+      </c>
       <c r="AB101" s="10"/>
       <c r="AC101" s="10"/>
       <c r="AD101" s="10"/>
@@ -29826,7 +29915,9 @@
       <c r="Z102" s="19">
         <v>119.83589265275138</v>
       </c>
-      <c r="AA102" s="10"/>
+      <c r="AA102" s="19">
+        <v>121.95409175695566</v>
+      </c>
       <c r="AB102" s="10"/>
       <c r="AC102" s="10"/>
       <c r="AD102" s="10"/>
@@ -29976,7 +30067,9 @@
       <c r="Z103" s="19">
         <v>103.5566211570281</v>
       </c>
-      <c r="AA103" s="10"/>
+      <c r="AA103" s="19">
+        <v>103.59894995451404</v>
+      </c>
       <c r="AB103" s="10"/>
       <c r="AC103" s="10"/>
       <c r="AD103" s="10"/>
@@ -30224,7 +30317,9 @@
       <c r="Z105" s="19">
         <v>128.6687686162096</v>
       </c>
-      <c r="AA105" s="10"/>
+      <c r="AA105" s="19">
+        <v>129.75223419860896</v>
+      </c>
       <c r="AB105" s="10"/>
       <c r="AC105" s="10"/>
       <c r="AD105" s="10"/>
@@ -30322,6 +30417,7 @@
       <c r="X106" s="13"/>
       <c r="Y106" s="13"/>
       <c r="Z106" s="13"/>
+      <c r="AA106" s="13"/>
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
@@ -30340,7 +30436,7 @@
     </row>
     <row r="112" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:96" x14ac:dyDescent="0.2">
@@ -30350,7 +30446,7 @@
     </row>
     <row r="115" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:96" x14ac:dyDescent="0.2">
@@ -30387,6 +30483,7 @@
       <c r="X118" s="6"/>
       <c r="Y118" s="6"/>
       <c r="Z118" s="6"/>
+      <c r="AA118" s="6"/>
     </row>
     <row r="119" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
@@ -30466,6 +30563,9 @@
       </c>
       <c r="Z119" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA119" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="120" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -30550,7 +30650,9 @@
       <c r="Z121" s="19">
         <v>53.6894519181307</v>
       </c>
-      <c r="AA121" s="10"/>
+      <c r="AA121" s="19">
+        <v>53.005012563995059</v>
+      </c>
       <c r="AB121" s="10"/>
       <c r="AC121" s="10"/>
       <c r="AD121" s="10"/>
@@ -30700,7 +30802,9 @@
       <c r="Z122" s="19">
         <v>4.661156897691825</v>
       </c>
-      <c r="AA122" s="10"/>
+      <c r="AA122" s="19">
+        <v>4.8686784655236286</v>
+      </c>
       <c r="AB122" s="10"/>
       <c r="AC122" s="10"/>
       <c r="AD122" s="10"/>
@@ -30850,7 +30954,9 @@
       <c r="Z123" s="19">
         <v>14.829927276785021</v>
       </c>
-      <c r="AA123" s="10"/>
+      <c r="AA123" s="19">
+        <v>14.432925143722755</v>
+      </c>
       <c r="AB123" s="10"/>
       <c r="AC123" s="10"/>
       <c r="AD123" s="10"/>
@@ -31000,7 +31106,9 @@
       <c r="Z124" s="19">
         <v>23.223893389074906</v>
       </c>
-      <c r="AA124" s="10"/>
+      <c r="AA124" s="19">
+        <v>23.764216161585626</v>
+      </c>
       <c r="AB124" s="10"/>
       <c r="AC124" s="10"/>
       <c r="AD124" s="10"/>
@@ -31150,7 +31258,9 @@
       <c r="Z125" s="19">
         <v>3.5955705183175333</v>
       </c>
-      <c r="AA125" s="10"/>
+      <c r="AA125" s="19">
+        <v>3.9291676651729208</v>
+      </c>
       <c r="AB125" s="10"/>
       <c r="AC125" s="10"/>
       <c r="AD125" s="10"/>
@@ -31398,7 +31508,9 @@
       <c r="Z127" s="19">
         <v>100</v>
       </c>
-      <c r="AA127" s="10"/>
+      <c r="AA127" s="19">
+        <v>100</v>
+      </c>
       <c r="AB127" s="10"/>
       <c r="AC127" s="10"/>
       <c r="AD127" s="10"/>
@@ -31496,6 +31608,7 @@
       <c r="X128" s="13"/>
       <c r="Y128" s="13"/>
       <c r="Z128" s="13"/>
+      <c r="AA128" s="13"/>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
@@ -31710,7 +31823,7 @@
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:96" x14ac:dyDescent="0.2">
@@ -31720,7 +31833,7 @@
     </row>
     <row r="137" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:96" x14ac:dyDescent="0.2">
@@ -31757,6 +31870,7 @@
       <c r="X140" s="6"/>
       <c r="Y140" s="6"/>
       <c r="Z140" s="6"/>
+      <c r="AA140" s="6"/>
     </row>
     <row r="141" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
@@ -31836,6 +31950,9 @@
       </c>
       <c r="Z141" s="16">
         <v>2024</v>
+      </c>
+      <c r="AA141" s="16">
+        <v>2025</v>
       </c>
     </row>
     <row r="142" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -31920,7 +32037,9 @@
       <c r="Z143" s="19">
         <v>50.494873907407531</v>
       </c>
-      <c r="AA143" s="10"/>
+      <c r="AA143" s="19">
+        <v>49.788624489083574</v>
+      </c>
       <c r="AB143" s="10"/>
       <c r="AC143" s="10"/>
       <c r="AD143" s="10"/>
@@ -32070,7 +32189,9 @@
       <c r="Z144" s="19">
         <v>5.2784625210969844</v>
       </c>
-      <c r="AA144" s="10"/>
+      <c r="AA144" s="19">
+        <v>5.3995666963770121</v>
+      </c>
       <c r="AB144" s="10"/>
       <c r="AC144" s="10"/>
       <c r="AD144" s="10"/>
@@ -32220,7 +32341,9 @@
       <c r="Z145" s="19">
         <v>14.823496324265159</v>
       </c>
-      <c r="AA145" s="10"/>
+      <c r="AA145" s="19">
+        <v>14.606955376068559</v>
+      </c>
       <c r="AB145" s="10"/>
       <c r="AC145" s="10"/>
       <c r="AD145" s="10"/>
@@ -32370,7 +32493,9 @@
       <c r="Z146" s="19">
         <v>24.935682446203998</v>
       </c>
-      <c r="AA146" s="10"/>
+      <c r="AA146" s="19">
+        <v>25.283777661921388</v>
+      </c>
       <c r="AB146" s="10"/>
       <c r="AC146" s="10"/>
       <c r="AD146" s="10"/>
@@ -32520,7 +32645,9 @@
       <c r="Z147" s="19">
         <v>4.467484801026318</v>
       </c>
-      <c r="AA147" s="10"/>
+      <c r="AA147" s="19">
+        <v>4.9210757765494559</v>
+      </c>
       <c r="AB147" s="10"/>
       <c r="AC147" s="10"/>
       <c r="AD147" s="10"/>
@@ -32768,7 +32895,9 @@
       <c r="Z149" s="19">
         <v>100</v>
       </c>
-      <c r="AA149" s="10"/>
+      <c r="AA149" s="19">
+        <v>100</v>
+      </c>
       <c r="AB149" s="10"/>
       <c r="AC149" s="10"/>
       <c r="AD149" s="10"/>
@@ -32866,6 +32995,7 @@
       <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
       <c r="Z150" s="13"/>
+      <c r="AA150" s="13"/>
     </row>
     <row r="151" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
@@ -33062,12 +33192,12 @@
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="22" max="25" man="1"/>
-    <brk id="44" max="25" man="1"/>
-    <brk id="66" max="25" man="1"/>
-    <brk id="88" max="25" man="1"/>
-    <brk id="109" max="25" man="1"/>
-    <brk id="131" max="25" man="1"/>
+    <brk id="22" max="26" man="1"/>
+    <brk id="44" max="26" man="1"/>
+    <brk id="66" max="26" man="1"/>
+    <brk id="88" max="26" man="1"/>
+    <brk id="109" max="26" man="1"/>
+    <brk id="131" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>